--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\utils\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D019B87-ECAA-446F-A0FC-3B503B899272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F488CAAF-3C26-4599-98CE-F22F9520496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>TextContentId</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Türkçe</t>
+  </si>
+  <si>
+    <t>TranslationsId</t>
   </si>
 </sst>
 </file>
@@ -390,181 +393,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F488CAAF-3C26-4599-98CE-F22F9520496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349BA12-1B86-4B5E-8E06-A6380FED8E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>TextContentId</t>
   </si>
@@ -76,6 +76,90 @@
   </si>
   <si>
     <t>TranslationsId</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>E-Posta</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Şifre</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Soyad</t>
+  </si>
+  <si>
+    <t>First name is required.</t>
+  </si>
+  <si>
+    <t>Last name is required.</t>
+  </si>
+  <si>
+    <t>Enter a valid email.</t>
+  </si>
+  <si>
+    <t>Password is required.</t>
+  </si>
+  <si>
+    <t>Email is required.</t>
+  </si>
+  <si>
+    <t>Must Contain 8 Characters.</t>
+  </si>
+  <si>
+    <t>Must contain one lowercase letter.</t>
+  </si>
+  <si>
+    <t>Must contain one upercase letter.</t>
+  </si>
+  <si>
+    <t>Must contain one number.</t>
+  </si>
+  <si>
+    <t>Must contain one special case character.</t>
+  </si>
+  <si>
+    <t>Ad girilmesi zorunlu alandır.</t>
+  </si>
+  <si>
+    <t>Soyad girilmesi zorunlu alandır.</t>
+  </si>
+  <si>
+    <t>E-Posta girilmesi zorunlu alandır.</t>
+  </si>
+  <si>
+    <t>Geçerli bir e-posta giriniz.</t>
+  </si>
+  <si>
+    <t>Şifre girilmesi zorunlu alandır.</t>
+  </si>
+  <si>
+    <t>En az 8 karakterden oluşmalıdır.</t>
+  </si>
+  <si>
+    <t>En az bir küçük harf içermelidir.</t>
+  </si>
+  <si>
+    <t>En az bir büyük harf içermelidir.</t>
+  </si>
+  <si>
+    <t>En az bir sayı içermelidir.</t>
+  </si>
+  <si>
+    <t>En az bir özel karakter içermelidir.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +488,7 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,6 +701,398 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349BA12-1B86-4B5E-8E06-A6380FED8E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F07C3-AA72-4CFD-85DF-315DDF8FAE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>TextContentId</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>En az bir özel karakter içermelidir.</t>
+  </si>
+  <si>
+    <t>Email is already registered.</t>
+  </si>
+  <si>
+    <t>E-posta zaten kayıtlı.</t>
+  </si>
+  <si>
+    <t>Email or password is incorrect.</t>
+  </si>
+  <si>
+    <t>E-posta veya şifre hatalı.</t>
+  </si>
+  <si>
+    <t>Registration Successful.</t>
+  </si>
+  <si>
+    <t>Kayıt başarılı.</t>
   </si>
 </sst>
 </file>
@@ -477,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,6 +1111,90 @@
         <v>44</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F07C3-AA72-4CFD-85DF-315DDF8FAE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FFB10-DF6A-4BB3-A77B-1D3FB06D524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>TextContentId</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>Kayıt başarılı.</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Profil</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Çıkış Yap</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1207,62 @@
         <v>50</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FFB10-DF6A-4BB3-A77B-1D3FB06D524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350DDFE-EF3B-4AD5-A59C-E43614E3EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>TextContentId</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Blog</t>
   </si>
   <si>
-    <t>Donwload</t>
-  </si>
-  <si>
     <t>İndir</t>
   </si>
   <si>
@@ -190,6 +187,21 @@
   </si>
   <si>
     <t>Çıkış Yap</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Topluluk</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Sohbet</t>
+  </si>
+  <si>
+    <t>Download</t>
   </si>
 </sst>
 </file>
@@ -507,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -602,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -630,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -658,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -686,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -700,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -742,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -756,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -770,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -784,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -798,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -868,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -924,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -938,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1272,63 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7350DDFE-EF3B-4AD5-A59C-E43614E3EF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731081B-5C1E-4B5C-9ACD-E2F15EEF7298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>TextContentId</t>
   </si>
@@ -202,6 +202,36 @@
   </si>
   <si>
     <t>Download</t>
+  </si>
+  <si>
+    <t>On what issues can you help others?</t>
+  </si>
+  <si>
+    <t>What issues do you need help with?</t>
+  </si>
+  <si>
+    <t>Hangi konularda yardıma ihtiyacınız var?</t>
+  </si>
+  <si>
+    <t>Başkalarına hangi konularda yardımcı olabilirsiniz?</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Kaydol</t>
+  </si>
+  <si>
+    <t>It is mandatory to fill this field.</t>
+  </si>
+  <si>
+    <t>Must contain at least 50 and maximum 300 letters.</t>
+  </si>
+  <si>
+    <t>Bu alanı doldurmak zorunludur.</t>
+  </si>
+  <si>
+    <t>En az 50, en fazla 300 karakter içermelidir.</t>
   </si>
 </sst>
 </file>
@@ -519,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1361,146 @@
         <v>57</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731081B-5C1E-4B5C-9ACD-E2F15EEF7298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11E454C-6934-4CC7-BA58-36405FFEFE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>TextContentId</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>En az 50, en fazla 300 karakter içermelidir.</t>
+  </si>
+  <si>
+    <t>Send Message</t>
+  </si>
+  <si>
+    <t>Mesaj Gönder</t>
+  </si>
+  <si>
+    <t>I can help with</t>
+  </si>
+  <si>
+    <t>Yardımcı olabilirim</t>
+  </si>
+  <si>
+    <t>I need help with</t>
+  </si>
+  <si>
+    <t>Yardıma ihtiyacım var</t>
   </si>
 </sst>
 </file>
@@ -549,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,6 +1519,90 @@
         <v>68</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>36</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11E454C-6934-4CC7-BA58-36405FFEFE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F4985-83B4-4209-B247-4A5509499F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>TextContentId</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Yardıma ihtiyacım var</t>
+  </si>
+  <si>
+    <t>Token has expired</t>
+  </si>
+  <si>
+    <t>Tokenın süresi doldu</t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,6 +1609,34 @@
         <v>74</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>37</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\utils\skills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1F017-3D86-4A7D-9E4B-5F3AE0F8FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A80792-E7E8-4B14-ABD4-BA73438FA8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1752" windowWidth="17292" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="2470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="2486">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -7430,6 +7430,54 @@
   </si>
   <si>
     <t>Sosyal Sorumluluk</t>
+  </si>
+  <si>
+    <t>Pick your photo</t>
+  </si>
+  <si>
+    <t>Fotoğrafınızı seçiniz</t>
+  </si>
+  <si>
+    <t>Add a short article about yourself</t>
+  </si>
+  <si>
+    <t>Kendinizden bahseden kısa bir yazı ekleyin</t>
+  </si>
+  <si>
+    <t>Hangi şehirde yaşıyorsnuz ?</t>
+  </si>
+  <si>
+    <t>Which city do you live in ?</t>
+  </si>
+  <si>
+    <t>Add your education information</t>
+  </si>
+  <si>
+    <t>Eğitim bilgilerinizi ekleyin</t>
+  </si>
+  <si>
+    <t>What languages ​​do you know ? (What level are you talking at?)</t>
+  </si>
+  <si>
+    <t>Hangi dilleri biliyorsunuz ? (Hangi seviyede konuşuyorsunuz ?)</t>
+  </si>
+  <si>
+    <t>Do you have any certificates you would like to share?</t>
+  </si>
+  <si>
+    <t>Paylaşmak istediğiniz sertifikalarınız var mı?</t>
+  </si>
+  <si>
+    <t>Hangi konulara hakimsiniz ?</t>
+  </si>
+  <si>
+    <t>What subjects do you know ?</t>
+  </si>
+  <si>
+    <t>In which subjects do you want to improve yourself?</t>
+  </si>
+  <si>
+    <t>Hangi konularada kendinizi geliştirmek istiyorsunuz ?</t>
   </si>
 </sst>
 </file>
@@ -7747,10 +7795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3013"/>
+  <dimension ref="A1:D3029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2998" workbookViewId="0">
-      <selection activeCell="D3014" sqref="D3014"/>
+    <sheetView tabSelected="1" topLeftCell="A3004" workbookViewId="0">
+      <selection activeCell="A3032" sqref="A3032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7758,7 +7806,7 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -49943,6 +49991,230 @@
         <v>2358</v>
       </c>
     </row>
+    <row r="3014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3014">
+        <v>3013</v>
+      </c>
+      <c r="B3014">
+        <v>1507</v>
+      </c>
+      <c r="C3014">
+        <v>1</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3015">
+        <v>3014</v>
+      </c>
+      <c r="B3015">
+        <v>1507</v>
+      </c>
+      <c r="C3015">
+        <v>2</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3016">
+        <v>3015</v>
+      </c>
+      <c r="B3016">
+        <v>1508</v>
+      </c>
+      <c r="C3016">
+        <v>1</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3017">
+        <v>3016</v>
+      </c>
+      <c r="B3017">
+        <v>1508</v>
+      </c>
+      <c r="C3017">
+        <v>2</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3018">
+        <v>3017</v>
+      </c>
+      <c r="B3018">
+        <v>1509</v>
+      </c>
+      <c r="C3018">
+        <v>1</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3019">
+        <v>3018</v>
+      </c>
+      <c r="B3019">
+        <v>1509</v>
+      </c>
+      <c r="C3019">
+        <v>2</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3020">
+        <v>3019</v>
+      </c>
+      <c r="B3020">
+        <v>1510</v>
+      </c>
+      <c r="C3020">
+        <v>1</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3021">
+        <v>3020</v>
+      </c>
+      <c r="B3021">
+        <v>1510</v>
+      </c>
+      <c r="C3021">
+        <v>2</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3022">
+        <v>3021</v>
+      </c>
+      <c r="B3022">
+        <v>1511</v>
+      </c>
+      <c r="C3022">
+        <v>1</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3023">
+        <v>3022</v>
+      </c>
+      <c r="B3023">
+        <v>1511</v>
+      </c>
+      <c r="C3023">
+        <v>2</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3024">
+        <v>3023</v>
+      </c>
+      <c r="B3024">
+        <v>1512</v>
+      </c>
+      <c r="C3024">
+        <v>1</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3025">
+        <v>3024</v>
+      </c>
+      <c r="B3025">
+        <v>1512</v>
+      </c>
+      <c r="C3025">
+        <v>2</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3026">
+        <v>3025</v>
+      </c>
+      <c r="B3026">
+        <v>1513</v>
+      </c>
+      <c r="C3026">
+        <v>1</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3027">
+        <v>3026</v>
+      </c>
+      <c r="B3027">
+        <v>1513</v>
+      </c>
+      <c r="C3027">
+        <v>2</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3028">
+        <v>3027</v>
+      </c>
+      <c r="B3028">
+        <v>1514</v>
+      </c>
+      <c r="C3028">
+        <v>1</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3029">
+        <v>3028</v>
+      </c>
+      <c r="B3029">
+        <v>1514</v>
+      </c>
+      <c r="C3029">
+        <v>2</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>2485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A80792-E7E8-4B14-ABD4-BA73438FA8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A3AA69-B320-43A4-B277-26963D0779B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="2486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="2488">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -7478,6 +7478,12 @@
   </si>
   <si>
     <t>Hangi konularada kendinizi geliştirmek istiyorsunuz ?</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>Takip Et</t>
   </si>
 </sst>
 </file>
@@ -7795,10 +7801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3029"/>
+  <dimension ref="A1:D3031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3004" workbookViewId="0">
-      <selection activeCell="A3032" sqref="A3032"/>
+    <sheetView tabSelected="1" topLeftCell="A3006" workbookViewId="0">
+      <selection activeCell="B3032" sqref="B3032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50215,6 +50221,34 @@
         <v>2485</v>
       </c>
     </row>
+    <row r="3030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3030">
+        <v>3029</v>
+      </c>
+      <c r="B3030">
+        <v>1515</v>
+      </c>
+      <c r="C3030">
+        <v>1</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3031">
+        <v>3030</v>
+      </c>
+      <c r="B3031">
+        <v>1515</v>
+      </c>
+      <c r="C3031">
+        <v>2</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>2487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64AF2E4-1F0A-4258-ADF0-0E46E2735F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548B0D5-A83A-4719-9353-07E217F7508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38535" yWindow="825" windowWidth="17295" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="2569">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -7547,18 +7547,206 @@
   </si>
   <si>
     <t>Kayıt olarak,  ${1523} ve ${1517} ları kabul etmiş olursunuz.</t>
+  </si>
+  <si>
+    <t>At Mentoryum, we value the privacy of our users. This privacy policy explains how we collect, use, store, and protect the personal information of visitors to our website and users of our services</t>
+  </si>
+  <si>
+    <t>1. Information We Collect</t>
+  </si>
+  <si>
+    <t>We may collect various personal information from our users, including:</t>
+  </si>
+  <si>
+    <t>Name and Surname</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Username and password</t>
+  </si>
+  <si>
+    <t>Demographic information (age, gender, etc.)</t>
+  </si>
+  <si>
+    <t>Communication preferences</t>
+  </si>
+  <si>
+    <t>Activities and transactions performed on our website</t>
+  </si>
+  <si>
+    <t>Mentoryum olarak, kullanıcılarımızın gizliliğine büyük önem veriyoruz. Bu gizlilik politikası, web sitemizi ziyaret eden ve hizmetlerimizden yararlanan kullanıcıların kişisel bilgilerinin nasıl toplandığını, kullanıldığını ve korunduğunu açıklamaktadır.</t>
+  </si>
+  <si>
+    <t>1. Toplanan Bilgiler</t>
+  </si>
+  <si>
+    <t>Web sitemizde, kullanıcılarımızdan çeşitli kişisel bilgiler toplayabiliriz. Bu bilgiler şunları içerebilir:</t>
+  </si>
+  <si>
+    <t>Ad ve Soyad</t>
+  </si>
+  <si>
+    <t>E-posta adresi</t>
+  </si>
+  <si>
+    <t>Kullanıcı adı ve şifre</t>
+  </si>
+  <si>
+    <t>Demografik bilgiler (yaş, cinsiyet vb.)</t>
+  </si>
+  <si>
+    <t>İletişim tercihleri</t>
+  </si>
+  <si>
+    <t>Web sitemizde gerçekleştirdiğiniz işlemler ve aktiviteler</t>
+  </si>
+  <si>
+    <t>2. Use of Information</t>
+  </si>
+  <si>
+    <t>We may use the personal information we collect for the following purposes:</t>
+  </si>
+  <si>
+    <t>To provide our services and fulfill user requests</t>
+  </si>
+  <si>
+    <t>To manage user accounts and provide customer support</t>
+  </si>
+  <si>
+    <t>To improve our website and services</t>
+  </si>
+  <si>
+    <t>To communicate with users (e.g., important notifications, updates, and marketing communications)</t>
+  </si>
+  <si>
+    <t>To personalize user experience</t>
+  </si>
+  <si>
+    <t>To ensure security and prevent fraud</t>
+  </si>
+  <si>
+    <t>3. Cookies and Tracking Technologies</t>
+  </si>
+  <si>
+    <t>Our website may use cookies and similar tracking technologies to enhance user experience. Cookies are small data files placed on your computer through your web browser. We may use cookies to analyze the functioning of our website, monitor site traffic, and remember user preferences.</t>
+  </si>
+  <si>
+    <t>4. Sharing of Information</t>
+  </si>
+  <si>
+    <t>Your personal information will not be shared with third parties except in the following circumstances:</t>
+  </si>
+  <si>
+    <t>With user consent</t>
+  </si>
+  <si>
+    <t>To comply with legal requirements</t>
+  </si>
+  <si>
+    <t>With our service providers (e.g., companies providing hosting, data analysis, and customer support services)</t>
+  </si>
+  <si>
+    <t>5. Protection of Information</t>
+  </si>
+  <si>
+    <t>We take appropriate technical and administrative measures to protect the security of user information. However, we cannot guarantee the complete security of information transmitted over the internet. Therefore, we recommend that you take care to safeguard your information.</t>
+  </si>
+  <si>
+    <t>6. User Rights</t>
+  </si>
+  <si>
+    <t>Our users have the right to access, correct, delete, or restrict the processing of their personal information. You can contact us to exercise these rights.</t>
+  </si>
+  <si>
+    <t>7. Changes to the Privacy Policy</t>
+  </si>
+  <si>
+    <t>We may update this privacy policy from time to time. When changes are made, we will post the updated policy on our website and notify users.</t>
+  </si>
+  <si>
+    <t>2. Bilgilerin Kullanımı</t>
+  </si>
+  <si>
+    <t>Topladığımız kişisel bilgileri aşağıdaki amaçlarla kullanabiliriz:</t>
+  </si>
+  <si>
+    <t>Hizmetlerimizi sağlamak ve kullanıcı taleplerini yerine getirmek</t>
+  </si>
+  <si>
+    <t>Kullanıcı hesaplarını yönetmek ve destek sağlamak</t>
+  </si>
+  <si>
+    <t>Web sitemizi ve hizmetlerimizi geliştirmek</t>
+  </si>
+  <si>
+    <t>Kullanıcılarla iletişim kurmak (örneğin, önemli bildirimler, güncellemeler ve pazarlama iletişimleri)</t>
+  </si>
+  <si>
+    <t>Kullanıcı deneyimini kişiselleştirmek</t>
+  </si>
+  <si>
+    <t>Güvenliği sağlamak ve dolandırıcılığı önlemek</t>
+  </si>
+  <si>
+    <t>3. Çerezler ve İzleme Teknolojileri</t>
+  </si>
+  <si>
+    <t>Web sitemiz, kullanıcı deneyimini iyileştirmek için çerezler ve benzeri izleme teknolojileri kullanabilir. Çerezler, web tarayıcınız aracılığıyla bilgisayarınıza yerleştirilen küçük veri dosyalarıdır. Çerezleri, web sitemizin işleyişini analiz etmek, site trafiğini izlemek ve kullanıcı tercihlerini hatırlamak için kullanabiliriz.</t>
+  </si>
+  <si>
+    <t>4. Bilgilerin Paylaşımı</t>
+  </si>
+  <si>
+    <t>Kullanıcı bilgileriniz, üçüncü taraflarla aşağıdaki durumlar haricinde paylaşılmayacaktır:</t>
+  </si>
+  <si>
+    <t>Kullanıcı onayı alındığında</t>
+  </si>
+  <si>
+    <t>Yasal gereklilikler doğrultusunda</t>
+  </si>
+  <si>
+    <t>Hizmet sağlayıcılarımızla (örneğin, barındırma, veri analizi ve müşteri hizmetleri gibi hizmetleri sunan firmalar)</t>
+  </si>
+  <si>
+    <t>5. Bilgilerin Korunması</t>
+  </si>
+  <si>
+    <t>Kullanıcı bilgilerinizin güvenliğini sağlamak için uygun teknik ve idari önlemler alıyoruz. Ancak, internet üzerinden iletilen bilgilerin tamamen güvenli olduğunu garanti edemeyiz. Bu nedenle, bilgilerinizin güvenliği için dikkatli olmanızı öneririz.</t>
+  </si>
+  <si>
+    <t>6. Kullanıcı Hakları</t>
+  </si>
+  <si>
+    <t>Kullanıcılarımız, kişisel bilgilerine erişme, bu bilgileri düzeltme, silme veya işlenmesini kısıtlama hakkına sahiptir. Bu haklarınızı kullanmak için bizimle iletişime geçebilirsiniz.</t>
+  </si>
+  <si>
+    <t>7. Gizlilik Politikasında Değişiklikler</t>
+  </si>
+  <si>
+    <t>Bu gizlilik politikasını zaman zaman güncelleyebiliriz. Değişiklikler yapıldığında, güncellenmiş politikayı web sitemizde yayınlayacağız ve kullanıcıları bilgilendireceğiz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7582,8 +7770,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7864,10 +8053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3051"/>
+  <dimension ref="A1:E3111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A3079" workbookViewId="0">
+      <selection activeCell="D3113" sqref="D3113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50595,6 +50784,846 @@
         <v>2508</v>
       </c>
     </row>
+    <row r="3052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3052">
+        <v>3051</v>
+      </c>
+      <c r="B3052">
+        <v>1526</v>
+      </c>
+      <c r="C3052">
+        <v>1</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3053">
+        <v>3052</v>
+      </c>
+      <c r="B3053">
+        <v>1526</v>
+      </c>
+      <c r="C3053">
+        <v>2</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3054">
+        <v>3053</v>
+      </c>
+      <c r="B3054">
+        <v>1527</v>
+      </c>
+      <c r="C3054">
+        <v>1</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3055">
+        <v>3054</v>
+      </c>
+      <c r="B3055">
+        <v>1527</v>
+      </c>
+      <c r="C3055">
+        <v>2</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3056">
+        <v>3055</v>
+      </c>
+      <c r="B3056">
+        <v>1528</v>
+      </c>
+      <c r="C3056">
+        <v>1</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3057">
+        <v>3056</v>
+      </c>
+      <c r="B3057">
+        <v>1528</v>
+      </c>
+      <c r="C3057">
+        <v>2</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3058">
+        <v>3057</v>
+      </c>
+      <c r="B3058">
+        <v>1529</v>
+      </c>
+      <c r="C3058">
+        <v>1</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3059">
+        <v>3058</v>
+      </c>
+      <c r="B3059">
+        <v>1529</v>
+      </c>
+      <c r="C3059">
+        <v>2</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3060">
+        <v>3059</v>
+      </c>
+      <c r="B3060">
+        <v>1530</v>
+      </c>
+      <c r="C3060">
+        <v>1</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3061">
+        <v>3060</v>
+      </c>
+      <c r="B3061">
+        <v>1530</v>
+      </c>
+      <c r="C3061">
+        <v>2</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3062">
+        <v>3061</v>
+      </c>
+      <c r="B3062">
+        <v>1531</v>
+      </c>
+      <c r="C3062">
+        <v>1</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3063">
+        <v>3062</v>
+      </c>
+      <c r="B3063">
+        <v>1531</v>
+      </c>
+      <c r="C3063">
+        <v>2</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3064">
+        <v>3063</v>
+      </c>
+      <c r="B3064">
+        <v>1532</v>
+      </c>
+      <c r="C3064">
+        <v>1</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3065">
+        <v>3064</v>
+      </c>
+      <c r="B3065">
+        <v>1532</v>
+      </c>
+      <c r="C3065">
+        <v>2</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3066">
+        <v>3065</v>
+      </c>
+      <c r="B3066">
+        <v>1533</v>
+      </c>
+      <c r="C3066">
+        <v>1</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3067">
+        <v>3066</v>
+      </c>
+      <c r="B3067">
+        <v>1533</v>
+      </c>
+      <c r="C3067">
+        <v>2</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3068">
+        <v>3067</v>
+      </c>
+      <c r="B3068">
+        <v>1534</v>
+      </c>
+      <c r="C3068">
+        <v>1</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3069">
+        <v>3068</v>
+      </c>
+      <c r="B3069">
+        <v>1534</v>
+      </c>
+      <c r="C3069">
+        <v>2</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3070">
+        <v>3069</v>
+      </c>
+      <c r="B3070">
+        <v>1535</v>
+      </c>
+      <c r="C3070">
+        <v>1</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3071">
+        <v>3070</v>
+      </c>
+      <c r="B3071">
+        <v>1535</v>
+      </c>
+      <c r="C3071">
+        <v>2</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3072">
+        <v>3071</v>
+      </c>
+      <c r="B3072">
+        <v>1536</v>
+      </c>
+      <c r="C3072">
+        <v>1</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3073">
+        <v>3072</v>
+      </c>
+      <c r="B3073">
+        <v>1536</v>
+      </c>
+      <c r="C3073">
+        <v>2</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3074">
+        <v>3073</v>
+      </c>
+      <c r="B3074">
+        <v>1537</v>
+      </c>
+      <c r="C3074">
+        <v>1</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3075">
+        <v>3074</v>
+      </c>
+      <c r="B3075">
+        <v>1537</v>
+      </c>
+      <c r="C3075">
+        <v>2</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3076">
+        <v>3075</v>
+      </c>
+      <c r="B3076">
+        <v>1538</v>
+      </c>
+      <c r="C3076">
+        <v>1</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3077">
+        <v>3076</v>
+      </c>
+      <c r="B3077">
+        <v>1538</v>
+      </c>
+      <c r="C3077">
+        <v>2</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3078">
+        <v>3077</v>
+      </c>
+      <c r="B3078">
+        <v>1539</v>
+      </c>
+      <c r="C3078">
+        <v>1</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3079">
+        <v>3078</v>
+      </c>
+      <c r="B3079">
+        <v>1539</v>
+      </c>
+      <c r="C3079">
+        <v>2</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3080">
+        <v>3079</v>
+      </c>
+      <c r="B3080">
+        <v>1540</v>
+      </c>
+      <c r="C3080">
+        <v>1</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3081">
+        <v>3080</v>
+      </c>
+      <c r="B3081">
+        <v>1540</v>
+      </c>
+      <c r="C3081">
+        <v>2</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3082">
+        <v>3081</v>
+      </c>
+      <c r="B3082">
+        <v>1541</v>
+      </c>
+      <c r="C3082">
+        <v>1</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3083">
+        <v>3082</v>
+      </c>
+      <c r="B3083">
+        <v>1541</v>
+      </c>
+      <c r="C3083">
+        <v>2</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3084">
+        <v>3083</v>
+      </c>
+      <c r="B3084">
+        <v>1542</v>
+      </c>
+      <c r="C3084">
+        <v>1</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3085">
+        <v>3084</v>
+      </c>
+      <c r="B3085">
+        <v>1542</v>
+      </c>
+      <c r="C3085">
+        <v>2</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3086">
+        <v>3085</v>
+      </c>
+      <c r="B3086">
+        <v>1543</v>
+      </c>
+      <c r="C3086">
+        <v>1</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3087">
+        <v>3086</v>
+      </c>
+      <c r="B3087">
+        <v>1543</v>
+      </c>
+      <c r="C3087">
+        <v>2</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3088">
+        <v>3087</v>
+      </c>
+      <c r="B3088">
+        <v>1544</v>
+      </c>
+      <c r="C3088">
+        <v>1</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3089">
+        <v>3088</v>
+      </c>
+      <c r="B3089">
+        <v>1544</v>
+      </c>
+      <c r="C3089">
+        <v>2</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3090">
+        <v>3089</v>
+      </c>
+      <c r="B3090">
+        <v>1545</v>
+      </c>
+      <c r="C3090">
+        <v>1</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3091">
+        <v>3090</v>
+      </c>
+      <c r="B3091">
+        <v>1545</v>
+      </c>
+      <c r="C3091">
+        <v>2</v>
+      </c>
+      <c r="D3091" s="1" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3092">
+        <v>3091</v>
+      </c>
+      <c r="B3092">
+        <v>1546</v>
+      </c>
+      <c r="C3092">
+        <v>1</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3093">
+        <v>3092</v>
+      </c>
+      <c r="B3093">
+        <v>1546</v>
+      </c>
+      <c r="C3093">
+        <v>2</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3094">
+        <v>3093</v>
+      </c>
+      <c r="B3094">
+        <v>1547</v>
+      </c>
+      <c r="C3094">
+        <v>1</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3095">
+        <v>3094</v>
+      </c>
+      <c r="B3095">
+        <v>1547</v>
+      </c>
+      <c r="C3095">
+        <v>2</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3096">
+        <v>3095</v>
+      </c>
+      <c r="B3096">
+        <v>1548</v>
+      </c>
+      <c r="C3096">
+        <v>1</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3097">
+        <v>3096</v>
+      </c>
+      <c r="B3097">
+        <v>1548</v>
+      </c>
+      <c r="C3097">
+        <v>2</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3098">
+        <v>3097</v>
+      </c>
+      <c r="B3098">
+        <v>1549</v>
+      </c>
+      <c r="C3098">
+        <v>1</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3099">
+        <v>3098</v>
+      </c>
+      <c r="B3099">
+        <v>1549</v>
+      </c>
+      <c r="C3099">
+        <v>2</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3100">
+        <v>3099</v>
+      </c>
+      <c r="B3100">
+        <v>1550</v>
+      </c>
+      <c r="C3100">
+        <v>1</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3101">
+        <v>3100</v>
+      </c>
+      <c r="B3101">
+        <v>1550</v>
+      </c>
+      <c r="C3101">
+        <v>2</v>
+      </c>
+      <c r="D3101" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3102">
+        <v>3101</v>
+      </c>
+      <c r="B3102">
+        <v>1551</v>
+      </c>
+      <c r="C3102">
+        <v>1</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3103">
+        <v>3102</v>
+      </c>
+      <c r="B3103">
+        <v>1551</v>
+      </c>
+      <c r="C3103">
+        <v>2</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3104">
+        <v>3103</v>
+      </c>
+      <c r="B3104">
+        <v>1552</v>
+      </c>
+      <c r="C3104">
+        <v>1</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3105">
+        <v>3104</v>
+      </c>
+      <c r="B3105">
+        <v>1552</v>
+      </c>
+      <c r="C3105">
+        <v>2</v>
+      </c>
+      <c r="D3105" s="1" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3106">
+        <v>3105</v>
+      </c>
+      <c r="B3106">
+        <v>1553</v>
+      </c>
+      <c r="C3106">
+        <v>1</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3107">
+        <v>3106</v>
+      </c>
+      <c r="B3107">
+        <v>1553</v>
+      </c>
+      <c r="C3107">
+        <v>2</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3108">
+        <v>3107</v>
+      </c>
+      <c r="B3108">
+        <v>1554</v>
+      </c>
+      <c r="C3108">
+        <v>1</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3109">
+        <v>3108</v>
+      </c>
+      <c r="B3109">
+        <v>1554</v>
+      </c>
+      <c r="C3109">
+        <v>2</v>
+      </c>
+      <c r="D3109" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3110">
+        <v>3109</v>
+      </c>
+      <c r="B3110">
+        <v>1555</v>
+      </c>
+      <c r="C3110">
+        <v>1</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3111">
+        <v>3110</v>
+      </c>
+      <c r="B3111">
+        <v>1555</v>
+      </c>
+      <c r="C3111">
+        <v>2</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>2568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548B0D5-A83A-4719-9353-07E217F7508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AAA32-6617-4599-AFE4-95F145FDE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="2710">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -7727,18 +7727,449 @@
   </si>
   <si>
     <t>Bu gizlilik politikasını zaman zaman güncelleyebiliriz. Değişiklikler yapıldığında, güncellenmiş politikayı web sitemizde yayınlayacağız ve kullanıcıları bilgilendireceğiz.</t>
+  </si>
+  <si>
+    <t>Welcome to Mentoryum!</t>
+  </si>
+  <si>
+    <t>These terms and conditions outline the rules and regulations for the use of Mentoryum's Website,</t>
+  </si>
+  <si>
+    <t>By accessing this website, we assume you accept these terms and conditions. Do not continue to use Mentoryum if you do not agree to take all of the terms and conditions stated on this page.</t>
+  </si>
+  <si>
+    <t>1. Terminology</t>
+  </si>
+  <si>
+    <t>The following terminology applies to these Terms and Conditions, Privacy Statement, and Disclaimer Notice, and all Agreements:</t>
+  </si>
+  <si>
+    <t>"Client", "You" and "Your" refers to you, the person who logs on to this website and is compliant with the Company’s terms and conditions.</t>
+  </si>
+  <si>
+    <t>"The Company", "Ourselves", "We", "Our", and "Us", refers to our Company.</t>
+  </si>
+  <si>
+    <t>"Party", "Parties", or "Us", refers to both the Client and ourselves.</t>
+  </si>
+  <si>
+    <t>Any use of the above terminology or other words in the singular, plural, capitalization, and/or he/she or they, are taken as interchangeable and therefore as referring to the same.</t>
+  </si>
+  <si>
+    <t>2. Cookies</t>
+  </si>
+  <si>
+    <t>We employ the use of cookies. By accessing Mentoryum, you agreed to use cookies in agreement with the Mentoryum's Privacy Policy.</t>
+  </si>
+  <si>
+    <t>Most interactive websites use cookies to let us retrieve the user’s details for each visit. Cookies are used by our website to enable the functionality of certain areas to make it easier for people visiting our website. Some of our affiliate/advertising partners may also use cookies.</t>
+  </si>
+  <si>
+    <t>3. License</t>
+  </si>
+  <si>
+    <t>Unless otherwise stated, Mentoryum and/or its licensors own the intellectual property rights for all material on Mentoryum. All intellectual property rights are reserved. You may access this from Mentoryum for your own personal use subjected to restrictions set in these terms and conditions.</t>
+  </si>
+  <si>
+    <t>You must not:</t>
+  </si>
+  <si>
+    <t>Republish material from Mentoryum</t>
+  </si>
+  <si>
+    <t>Sell, rent, or sub-license material from Mentoryum</t>
+  </si>
+  <si>
+    <t>Reproduce, duplicate, or copy material from Mentoryum</t>
+  </si>
+  <si>
+    <t>Redistribute content from Mentoryum</t>
+  </si>
+  <si>
+    <t>This Agreement shall begin on the date hereof.</t>
+  </si>
+  <si>
+    <t>4. User Comments</t>
+  </si>
+  <si>
+    <t>Parts of this website offer an opportunity for users to post and exchange opinions and information in certain areas of the website. Mentoryum does not filter, edit, publish or review Comments prior to their presence on the website. Comments do not reflect the views and opinions of Mentoryum, its agents, and/or affiliates. Comments reflect the views and opinions of the person who posts their views and opinions.</t>
+  </si>
+  <si>
+    <t>Mentoryum shall not be liable for the Comments or any liability, damages, or expenses caused and/or suffered as a result of any use of and/or posting of and/or appearance of the Comments on this website.</t>
+  </si>
+  <si>
+    <t>Mentoryum reserves the right to monitor all Comments and to remove any Comments that can be considered inappropriate, offensive, or causes a breach of these Terms and Conditions.</t>
+  </si>
+  <si>
+    <t>You warrant and represent that:</t>
+  </si>
+  <si>
+    <t>You are entitled to post the Comments on our website and have all necessary licenses and consents to do so;</t>
+  </si>
+  <si>
+    <t>The Comments do not invade any intellectual property right, including without limitation copyright, patent, or trademark of any third party;</t>
+  </si>
+  <si>
+    <t>The Comments do not contain any defamatory, libelous, offensive, indecent, or otherwise unlawful material which is an invasion of privacy;</t>
+  </si>
+  <si>
+    <t>The Comments will not be used to solicit or promote business or custom or present commercial activities or unlawful activity.</t>
+  </si>
+  <si>
+    <t>You hereby grant Mentoryum a non-exclusive license to use, reproduce, edit and authorize others to use, reproduce and edit any of your Comments in any and all forms, formats, or media.</t>
+  </si>
+  <si>
+    <t>5. Hyperlinking to our Content</t>
+  </si>
+  <si>
+    <t>The following organizations may link to our Website without prior written approval:</t>
+  </si>
+  <si>
+    <t>Government agencies;</t>
+  </si>
+  <si>
+    <t>Search engines;</t>
+  </si>
+  <si>
+    <t>News organizations;</t>
+  </si>
+  <si>
+    <t>Online directory distributors may link to our Website in the same manner as they hyperlink to the Websites of other listed businesses; and</t>
+  </si>
+  <si>
+    <t>System-wide Accredited Businesses except soliciting non-profit organizations, charity shopping malls, and charity fundraising groups which may not hyperlink to our Web site.</t>
+  </si>
+  <si>
+    <t>These organizations may link to our home page, to publications, or to other Website information so long as the link: (a) is not in any way deceptive; (b) does not falsely imply sponsorship, endorsement, or approval of the linking party and its products and/or services; and (c) fits within the context of the linking party’s site.</t>
+  </si>
+  <si>
+    <t>We may consider and approve other link requests from the following types of organizations:</t>
+  </si>
+  <si>
+    <t>commonly-known consumer and/or business information sources;</t>
+  </si>
+  <si>
+    <t>dot.com community sites;</t>
+  </si>
+  <si>
+    <t>associations or other groups representing charities;</t>
+  </si>
+  <si>
+    <t>online directory distributors;</t>
+  </si>
+  <si>
+    <t>internet portals;</t>
+  </si>
+  <si>
+    <t>accounting, law, and consulting firms; and</t>
+  </si>
+  <si>
+    <t>educational institutions and trade associations.</t>
+  </si>
+  <si>
+    <t>We will approve link requests from these organizations if we decide that: (a) the link would not make us look unfavorably to ourselves or to our accredited businesses; (b) the organization does not have any negative records with us; (c) the benefit to us from the visibility of the hyperlink compensates the absence of Mentoryum; and (d) the link is in the context of general resource information.</t>
+  </si>
+  <si>
+    <t>These organizations may link to our home page so long as the link: (a) is not in any way deceptive; (b) does not falsely imply sponsorship, endorsement, or approval of the linking party and its products or services; and (c) fits within the context of the linking party’s site.</t>
+  </si>
+  <si>
+    <t>If you are one of the organizations listed in paragraph 2 above and are interested in linking to our website, you must inform us by sending an e-mail to Mentoryum. Please include your name, your organization name, contact information as well as the URL of your site, a list of any URLs from which you intend to link to our Website, and a list of the URLs on our site to which you would like to link. Wait 2-3 weeks for a response.</t>
+  </si>
+  <si>
+    <t>Approved organizations may hyperlink to our Website as follows:</t>
+  </si>
+  <si>
+    <t>By use of our corporate name; or</t>
+  </si>
+  <si>
+    <t>By use of the uniform resource locator being linked to; or</t>
+  </si>
+  <si>
+    <t>By use of any other description of our Website being linked to that makes sense within the context and format of content on the linking party’s site.</t>
+  </si>
+  <si>
+    <t>No use of Mentoryum's logo or other artwork will be allowed for linking absent a trademark license agreement.</t>
+  </si>
+  <si>
+    <t>6. iFrames</t>
+  </si>
+  <si>
+    <t>Without prior approval and written permission, you may not create frames around our Webpages that alter in any way the visual presentation or appearance of our Website.</t>
+  </si>
+  <si>
+    <t>7. Content Liability</t>
+  </si>
+  <si>
+    <t>We shall not be held responsible for any content that appears on your Website. You agree to protect and defend us against all claims that are rising on your Website. No link(s) should appear on any Website that may be interpreted as libelous, obscene, or criminal, or which infringes, otherwise violates, or advocates the infringement or other violation of, any third party rights.</t>
+  </si>
+  <si>
+    <t>8. Reservation of Rights</t>
+  </si>
+  <si>
+    <t>We reserve the right to request that you remove all links or any particular link to our Website. You approve to immediately remove all links to our Website upon request. We also reserve the right to amend these terms and conditions and it’s linking policy at any time. By continuously linking to our Website, you agree to be bound to and follow these linking terms and conditions.</t>
+  </si>
+  <si>
+    <t>9. Removal of links from our website</t>
+  </si>
+  <si>
+    <t>If you find any link on our Website that is offensive for any reason, you are free to contact and inform us at any moment. We will consider requests to remove links but we are not obligated to or so or to respond to you directly.</t>
+  </si>
+  <si>
+    <t>We do not ensure that the information on this website is correct, we do not warrant its completeness or accuracy; nor do we promise to ensure that the website remains available or that the material on the website is kept up to date.</t>
+  </si>
+  <si>
+    <t>10. Disclaimer</t>
+  </si>
+  <si>
+    <t>To the maximum extent permitted by applicable law, we exclude all representations, warranties, and conditions relating to our website and the use of this website. Nothing in this disclaimer will:</t>
+  </si>
+  <si>
+    <t>limit or exclude our or your liability for death or personal injury;</t>
+  </si>
+  <si>
+    <t>limit or exclude our or your liability for fraud or fraudulent misrepresentation;</t>
+  </si>
+  <si>
+    <t>limit any of our or your liabilities in any way that is not permitted under applicable law; or</t>
+  </si>
+  <si>
+    <t>exclude any of our or your liabilities that may not be excluded under applicable law.</t>
+  </si>
+  <si>
+    <t>The limitations and prohibitions of liability set in this Section and elsewhere in this disclaimer: (a) are subject to the preceding paragraph; and (b) govern all liabilities arising under the disclaimer, including liabilities arising in contract, in tort, and for breach of statutory duty.</t>
+  </si>
+  <si>
+    <t>As long as the website and the information and services on the website are provided free of charge, we will not be liable for any loss or damage of any nature.</t>
+  </si>
+  <si>
+    <t>1. Terminoloji</t>
+  </si>
+  <si>
+    <t>Bu Şartlar ve Koşullar, Gizlilik Beyanı ve Feragatname Bildirimi ve tüm Anlaşmalar için aşağıdaki terminoloji geçerlidir:</t>
+  </si>
+  <si>
+    <t>"Müşteri", "Siz" ve "Sizin" ifadesi, bu web sitesine giriş yapan ve Şirketin şart ve koşullarına uygun olan sizi ifade eder.</t>
+  </si>
+  <si>
+    <t>"Şirket", "Biz", "Bizim" ve "Bizi" ifadesi, Şirketimizi ifade eder.</t>
+  </si>
+  <si>
+    <t>"Taraf", "Taraflar" veya "Biz", hem Müşteri hem de kendimizi ifade eder.</t>
+  </si>
+  <si>
+    <t>Yukarıdaki terminolojinin veya tekil, çoğul, büyük harf kullanımı ve/veya he/she veya onlar gibi diğer kelimelerin kullanımı, birbirinin yerine geçecek şekilde ve dolayısıyla aynı şeyi ifade edecek şekilde alınmıştır.</t>
+  </si>
+  <si>
+    <t>2. Çerezler</t>
+  </si>
+  <si>
+    <t>Çoğu etkileşimli web sitesi, kullanıcı bilgilerini her ziyaret için alabilmek amacıyla çerezleri kullanır. Çerezler, web sitemizin belirli alanlarının işlevselliğini sağlamak ve web sitemizi ziyaret eden insanlar için daha kolay hale getirmek için kullanılır. Bazı bağlı reklam ortaklarımız da çerezleri kullanabilir.</t>
+  </si>
+  <si>
+    <t>3. Lisans</t>
+  </si>
+  <si>
+    <t>Şunları yapmamalısınız:</t>
+  </si>
+  <si>
+    <t>Bu Anlaşma, burada yazıldığı tarihte başlar.</t>
+  </si>
+  <si>
+    <t>4. Kullanıcı Yorumları</t>
+  </si>
+  <si>
+    <t>Şunu garanti ve beyan edersiniz:</t>
+  </si>
+  <si>
+    <t>Yorumları web sitemizde yayınlama hakkına sahipsiniz ve bunu yapmak için tüm gerekli lisans ve onaylara sahipsiniz;</t>
+  </si>
+  <si>
+    <t>Yorumlar, herhangi bir üçüncü şahsın telif hakkı, patent veya ticari marka gibi herhangi bir fikri mülkiyet hakkını ihlal etmez;</t>
+  </si>
+  <si>
+    <t>Yorumlar, herhangi bir iftira, karalama, saldırgan, ahlaksız veya yasadışı materyal içermez ki bu gizlilik ihlalidir;</t>
+  </si>
+  <si>
+    <t>Yorumlar, iş veya özel faaliyetleri tanıtmak veya teşvik etmek için kullanılmayacaktır.</t>
+  </si>
+  <si>
+    <t>5. İçeriğimize Bağlantı Verme</t>
+  </si>
+  <si>
+    <t>Aşağıdaki kuruluşlar, önceden yazılı onay almadan web sitemize bağlantı verebilir:</t>
+  </si>
+  <si>
+    <t>Devlet kurumları;</t>
+  </si>
+  <si>
+    <t>Arama motorları;</t>
+  </si>
+  <si>
+    <t>Haber kuruluşları;</t>
+  </si>
+  <si>
+    <t>Çevrimiçi dizin dağıtıcıları, diğer listelenen işletmelerin web sitelerine olduğu gibi web sitemize de bağlantı verebilir; ve</t>
+  </si>
+  <si>
+    <t>Sistem çapında Akredite İşletmeler, hayır kurumlarını temsil eden kuruluşlar, hayır alışveriş merkezleri ve hayır toplama grupları dışında.</t>
+  </si>
+  <si>
+    <t>Bu kuruluşlar, bağlantının: (a) herhangi bir şekilde yanıltıcı olmaması; (b) bağlantı veren taraf ve ürünlerinin ve/veya hizmetlerinin sponsorluğu, onayı veya onayını yanlış bir şekilde ima etmemesi; ve (c) bağlantı veren tarafın sitesinin bağlamına uygun olması koşuluyla, ana sayfamıza, yayınlara veya diğer Web sitesi bilgilerine bağlantı verebilir.</t>
+  </si>
+  <si>
+    <t>Aşağıdaki türde kuruluşlardan gelen diğer bağlantı taleplerini değerlendirebilir ve onaylayabiliriz:</t>
+  </si>
+  <si>
+    <t>yaygın olarak bilinen tüketici ve/veya iş bilgi kaynakları;</t>
+  </si>
+  <si>
+    <t>dot.com topluluk siteleri;</t>
+  </si>
+  <si>
+    <t>hayır kurumlarını temsil eden dernekler veya diğer gruplar;</t>
+  </si>
+  <si>
+    <t>çevrimiçi dizin dağıtıcıları;</t>
+  </si>
+  <si>
+    <t>internet portalları;</t>
+  </si>
+  <si>
+    <t>muhasebe, hukuk ve danışmanlık firmaları; ve</t>
+  </si>
+  <si>
+    <t>eğitim kurumları ve ticaret dernekleri.</t>
+  </si>
+  <si>
+    <t>Bu kuruluşlar, bağlantının: (a) herhangi bir şekilde yanıltıcı olmaması; (b) bağlantı veren taraf ve ürünlerinin veya hizmetlerinin sponsorluğu, onayı veya onayını yanlış bir şekilde ima etmemesi; ve (c) bağlantı veren tarafın sitesinin bağlamına uygun olması koşuluyla, ana sayfamıza bağlantı verebilir.</t>
+  </si>
+  <si>
+    <t>Onaylanan kuruluşlar, web sitemize şu şekilde bağlantı verebilir:</t>
+  </si>
+  <si>
+    <t>Kurumsal adımızın kullanımıyla; veya</t>
+  </si>
+  <si>
+    <t>Bağlantı verilen URL'nin kullanımıyla; veya</t>
+  </si>
+  <si>
+    <t>Bağlantı veren tarafın sitesindeki içeriğin bağlamında ve formatında anlamlı olan web sitemizin herhangi bir başka açıklamasının kullanımıyla.</t>
+  </si>
+  <si>
+    <t>Önceden onay ve yazılı izin olmaksızın, web sayfalarımızın görsel sunumunu veya görünümünü herhangi bir şekilde değiştiren çerçeveler oluşturamazsınız.</t>
+  </si>
+  <si>
+    <t>7. İçerik Sorumluluğu</t>
+  </si>
+  <si>
+    <t>Web sitenizde görünen herhangi bir içerikten sorumlu tutulamayız. Web sitenizde ortaya çıkan tüm iddialara karşı bizi koruyup savunmayı kabul edersiniz. Herhangi bir web sitesinde ortaya çıkan bağlantı(lar), iftira, müstehcen veya suçlu olarak yorumlanabilecek veya üçüncü şahıs haklarını ihlal eden, başka bir şekilde ihlal eden veya başka bir şekilde ihlalini savunan herhangi bir bağlantı görünmemelidir.</t>
+  </si>
+  <si>
+    <t>8. Hakların Saklı Tutulması</t>
+  </si>
+  <si>
+    <t>Web sitemize olan tüm bağlantıları veya herhangi bir belirli bağlantıyı kaldırmanızı talep etme hakkını saklı tutarız. Talep üzerine web sitemize olan tüm bağlantıları derhal kaldırmayı kabul edersiniz. Ayrıca, bu şartlar ve koşulları ve bağlantı politikasını herhangi bir zamanda değiştirme hakkını saklı tutarız. Web sitemize sürekli olarak bağlanarak, bu bağlantı şartlarına ve koşullarına bağlı kalmayı ve bunları takip etmeyi kabul edersiniz.</t>
+  </si>
+  <si>
+    <t>9. Web sitemizden bağlantıların kaldırılması</t>
+  </si>
+  <si>
+    <t>Web sitemizde herhangi bir nedenle rahatsız edici bir bağlantı bulursanız, istediğiniz zaman bizimle iletişime geçmekte ve bizi bilgilendirmekte özgürsünüz. Bağlantıları kaldırma taleplerini dikkate alacağız, ancak bunları kaldırmak veya size doğrudan yanıt vermek zorunda değiliz.</t>
+  </si>
+  <si>
+    <t>Bu web sitesindeki bilgilerin doğru olduğundan emin olmayız, bilgilerin eksiksizliğini veya doğruluğunu garanti etmeyiz; web sitesinin erişilebilir durumda kalacağını veya web sitesindeki materyalin güncel tutulacağını da taahhüt etmeyiz.</t>
+  </si>
+  <si>
+    <t>10. Feragatname</t>
+  </si>
+  <si>
+    <t>Yürürlükteki kanunun izin verdiği azami ölçüde, web sitemiz ve bu web sitesinin kullanımına ilişkin tüm beyanları, garantileri ve koşulları hariç tutarız. Bu feragatte hiçbir şey:</t>
+  </si>
+  <si>
+    <t>ölüm veya kişisel yaralanma için bizim veya sizin sorumluluğunuzu sınırlamaz veya hariç tutmaz;</t>
+  </si>
+  <si>
+    <t>dolandırıcılık veya hileli yanlış beyan için bizim veya sizin sorumluluğunuzu sınırlamaz veya hariç tutmaz;</t>
+  </si>
+  <si>
+    <t>yürürlükteki kanunlar kapsamında izin verilmeyen herhangi bir şekilde bizim veya sizin sorumluluklarınızı sınırlamaz; veya</t>
+  </si>
+  <si>
+    <t>yürürlükteki kanunlar kapsamında hariç tutulamayan herhangi bir sorumluluğumuzu veya sizin sorumluluklarınızı hariç tutmaz.</t>
+  </si>
+  <si>
+    <t>Bu Bölümde ve bu feragatnamenin diğer yerlerinde belirlenen sorumluluk sınırlamaları ve yasaklamaları: (a) yukarıdaki paragrafa tabidir; ve (b) feragatname kapsamındaki tüm sorumlulukları kapsar, sözleşmede, haksız fiilde ve yasal yükümlülüğün ihlali durumunda ortaya çıkan sorumluluklar dahil.</t>
+  </si>
+  <si>
+    <t>Web sitesi ve web sitesindeki bilgiler ve hizmetler ücretsiz olarak sağlandığı sürece, herhangi bir doğa kaybı veya zarardan sorumlu olmayacağız.</t>
+  </si>
+  <si>
+    <t>Mentoryum'na hoş geldiniz!</t>
+  </si>
+  <si>
+    <t>Bu web sitesine erişerek, bu şartlar ve koşulları kabul ettiğinizi varsayıyoruz. Mentoryum'nı kullanmaya devam etmeyin eğer bu sayfada belirtilen tüm şartları ve koşulları kabul etmiyorsanız.</t>
+  </si>
+  <si>
+    <t>Çerez kullanımını uygularız. Mentoryum'na erişerek, Mentoryum'nın Gizlilik Politikasına uygun olarak çerezleri kullanmayı kabul ettiniz.</t>
+  </si>
+  <si>
+    <t>Aksi belirtilmedikçe, Mentoryum ve/veya lisans verenleri, Mentoryum'ndaki tüm materyalin fikri mülkiyet haklarına sahiptir. Tüm fikri mülkiyet hakları saklıdır. Bu Mentoryum'nı kendi kişisel kullanımınız için, bu şartlar ve koşullarda belirlenen kısıtlamalara tabi olarak erişebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Mentoryum'ndan materyalleri yeniden yayınlamak</t>
+  </si>
+  <si>
+    <t>Mentoryum'ndan materyalleri satmak, kiralamak veya alt lisanslamak</t>
+  </si>
+  <si>
+    <t>Mentoryum'ndan materyalleri çoğaltmak, kopyalamak veya kopyalamak</t>
+  </si>
+  <si>
+    <t>Mentoryum'ndan içeriği yeniden dağıtmak</t>
+  </si>
+  <si>
+    <t>Bu web sitesinin belirli bölümleri, kullanıcılara web sitesinin belirli alanlarında görüş ve bilgi göndermeleri ve değiştirmeleri için fırsat sunar. Mentoryum, Yorumların web sitesinde görünmeden önce filtrelenmemesi, düzenlenmemesi, yayınlanmaması veya gözden geçirilmemesi. Yorumlar, Mentoryum, acenteleri ve/veya iştiraklerinin görüş ve düşüncelerini yansıtmaz. Yorumlar, görüş ve düşüncelerini yayınlayan kişinin görüş ve düşüncelerini yansıtır.</t>
+  </si>
+  <si>
+    <t>Mentoryum, Yorumlar veya Yorumların bu web sitesinde herhangi bir kullanımı ve/veya gönderimi ve/veya görünümünden kaynaklanan herhangi bir sorumluluk, zarar veya masraftan sorumlu olmayacaktır.</t>
+  </si>
+  <si>
+    <t>Mentoryum, tüm Yorumları izleme ve herhangi bir Yorumun uygun olmadığını, saldırgan olduğunu veya bu Şartlar ve Koşulları ihlal ettiğini düşünerek kaldırma hakkını saklı tutar.</t>
+  </si>
+  <si>
+    <t>Burada, Yorumlarınızı herhangi bir ve tüm biçimlerde, formatlarda veya medyada kullanmak, çoğaltmak, düzenlemek ve başkalarının kullanmasına, çoğaltmasına ve düzenlemesine izin vermek için Mentoryum'na münhasır olmayan bir lisans verirsiniz.</t>
+  </si>
+  <si>
+    <t>Bu kuruluşlardan gelen bağlantı taleplerini şu koşullar altında onaylayacağız: (a) bağlantı bizim veya akredite işletmelerimizin kendimize olumsuz bir şekilde bakmasına neden olmayacaktır; (b) kuruluşun bizde olumsuz bir kaydı yoktur; (c) bağlantının görünürlüğünden elde ettiğimiz fayda Mentoryum'nın yokluğunu telafi eder; ve (d) bağlantı genel kaynak bilgileri bağlamındadır.</t>
+  </si>
+  <si>
+    <t>Yukarıdaki paragraf 2'de listelenen kuruluşlardan biriyseniz ve web sitemize bağlantı vermekle ilgileniyorsanız, Mentoryum'na bir e-posta göndererek bizi bilgilendirmelisiniz. Lütfen adınızı, kuruluş adınızı, iletişim bilgilerinizi ve sitenizin URL'sini, web sitemize bağlantı vermek istediğiniz URL'lerin bir listesini ve sitemizde bağlantı vermek istediğiniz URL'lerin bir listesini ekleyin. Yanıt için 2-3 hafta bekleyin.</t>
+  </si>
+  <si>
+    <t>Mentoryum'nın logosu veya diğer sanat eserlerinin kullanımı, ticari marka lisans anlaşması olmaksızın bağlantı için izin verilmez.</t>
+  </si>
+  <si>
+    <t>Bu kullanım şartları ve koşulları, Mentoryum web sitesinin kullanımına ilişkin kuralları ve düzenlemeleri belirtir.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7770,9 +8201,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8053,10 +8490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3111"/>
+  <dimension ref="A1:E3253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3079" workbookViewId="0">
-      <selection activeCell="D3113" sqref="D3113"/>
+    <sheetView tabSelected="1" topLeftCell="A3095" workbookViewId="0">
+      <selection activeCell="D3115" sqref="D3115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51624,6 +52061,1994 @@
         <v>2568</v>
       </c>
     </row>
+    <row r="3112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3112">
+        <v>3111</v>
+      </c>
+      <c r="B3112">
+        <v>1556</v>
+      </c>
+      <c r="C3112">
+        <v>1</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3113">
+        <v>3112</v>
+      </c>
+      <c r="B3113">
+        <v>1556</v>
+      </c>
+      <c r="C3113">
+        <v>2</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3114">
+        <v>3113</v>
+      </c>
+      <c r="B3114">
+        <v>1557</v>
+      </c>
+      <c r="C3114">
+        <v>1</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3115">
+        <v>3114</v>
+      </c>
+      <c r="B3115">
+        <v>1557</v>
+      </c>
+      <c r="C3115">
+        <v>2</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3116">
+        <v>3115</v>
+      </c>
+      <c r="B3116">
+        <v>1558</v>
+      </c>
+      <c r="C3116">
+        <v>1</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3117">
+        <v>3116</v>
+      </c>
+      <c r="B3117">
+        <v>1558</v>
+      </c>
+      <c r="C3117">
+        <v>2</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3118">
+        <v>3117</v>
+      </c>
+      <c r="B3118">
+        <v>1559</v>
+      </c>
+      <c r="C3118">
+        <v>1</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3119">
+        <v>3118</v>
+      </c>
+      <c r="B3119">
+        <v>1559</v>
+      </c>
+      <c r="C3119">
+        <v>2</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3120">
+        <v>3119</v>
+      </c>
+      <c r="B3120">
+        <v>1560</v>
+      </c>
+      <c r="C3120">
+        <v>1</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3121">
+        <v>3120</v>
+      </c>
+      <c r="B3121">
+        <v>1560</v>
+      </c>
+      <c r="C3121">
+        <v>2</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3122">
+        <v>3121</v>
+      </c>
+      <c r="B3122">
+        <v>1561</v>
+      </c>
+      <c r="C3122">
+        <v>1</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3123">
+        <v>3122</v>
+      </c>
+      <c r="B3123">
+        <v>1561</v>
+      </c>
+      <c r="C3123">
+        <v>2</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3124">
+        <v>3123</v>
+      </c>
+      <c r="B3124">
+        <v>1562</v>
+      </c>
+      <c r="C3124">
+        <v>1</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3125">
+        <v>3124</v>
+      </c>
+      <c r="B3125">
+        <v>1562</v>
+      </c>
+      <c r="C3125">
+        <v>2</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3126">
+        <v>3125</v>
+      </c>
+      <c r="B3126">
+        <v>1563</v>
+      </c>
+      <c r="C3126">
+        <v>1</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3127">
+        <v>3126</v>
+      </c>
+      <c r="B3127">
+        <v>1563</v>
+      </c>
+      <c r="C3127">
+        <v>2</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3128">
+        <v>3127</v>
+      </c>
+      <c r="B3128">
+        <v>1564</v>
+      </c>
+      <c r="C3128">
+        <v>1</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3129">
+        <v>3128</v>
+      </c>
+      <c r="B3129">
+        <v>1564</v>
+      </c>
+      <c r="C3129">
+        <v>2</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3130">
+        <v>3129</v>
+      </c>
+      <c r="B3130">
+        <v>1565</v>
+      </c>
+      <c r="C3130">
+        <v>1</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3131">
+        <v>3130</v>
+      </c>
+      <c r="B3131">
+        <v>1565</v>
+      </c>
+      <c r="C3131">
+        <v>2</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3132">
+        <v>3131</v>
+      </c>
+      <c r="B3132">
+        <v>1566</v>
+      </c>
+      <c r="C3132">
+        <v>1</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3133">
+        <v>3132</v>
+      </c>
+      <c r="B3133">
+        <v>1566</v>
+      </c>
+      <c r="C3133">
+        <v>2</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3134">
+        <v>3133</v>
+      </c>
+      <c r="B3134">
+        <v>1567</v>
+      </c>
+      <c r="C3134">
+        <v>1</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3135">
+        <v>3134</v>
+      </c>
+      <c r="B3135">
+        <v>1567</v>
+      </c>
+      <c r="C3135">
+        <v>2</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3136">
+        <v>3135</v>
+      </c>
+      <c r="B3136">
+        <v>1568</v>
+      </c>
+      <c r="C3136">
+        <v>1</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3137">
+        <v>3136</v>
+      </c>
+      <c r="B3137">
+        <v>1568</v>
+      </c>
+      <c r="C3137">
+        <v>2</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3138">
+        <v>3137</v>
+      </c>
+      <c r="B3138">
+        <v>1569</v>
+      </c>
+      <c r="C3138">
+        <v>1</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3139">
+        <v>3138</v>
+      </c>
+      <c r="B3139">
+        <v>1569</v>
+      </c>
+      <c r="C3139">
+        <v>2</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3140">
+        <v>3139</v>
+      </c>
+      <c r="B3140">
+        <v>1570</v>
+      </c>
+      <c r="C3140">
+        <v>1</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3141">
+        <v>3140</v>
+      </c>
+      <c r="B3141">
+        <v>1570</v>
+      </c>
+      <c r="C3141">
+        <v>2</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3142">
+        <v>3141</v>
+      </c>
+      <c r="B3142">
+        <v>1571</v>
+      </c>
+      <c r="C3142">
+        <v>1</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3143">
+        <v>3142</v>
+      </c>
+      <c r="B3143">
+        <v>1571</v>
+      </c>
+      <c r="C3143">
+        <v>2</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3144">
+        <v>3143</v>
+      </c>
+      <c r="B3144">
+        <v>1572</v>
+      </c>
+      <c r="C3144">
+        <v>1</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3145">
+        <v>3144</v>
+      </c>
+      <c r="B3145">
+        <v>1572</v>
+      </c>
+      <c r="C3145">
+        <v>2</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3146">
+        <v>3145</v>
+      </c>
+      <c r="B3146">
+        <v>1573</v>
+      </c>
+      <c r="C3146">
+        <v>1</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3147">
+        <v>3146</v>
+      </c>
+      <c r="B3147">
+        <v>1573</v>
+      </c>
+      <c r="C3147">
+        <v>2</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3148">
+        <v>3147</v>
+      </c>
+      <c r="B3148">
+        <v>1574</v>
+      </c>
+      <c r="C3148">
+        <v>1</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3149">
+        <v>3148</v>
+      </c>
+      <c r="B3149">
+        <v>1574</v>
+      </c>
+      <c r="C3149">
+        <v>2</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3150">
+        <v>3149</v>
+      </c>
+      <c r="B3150">
+        <v>1575</v>
+      </c>
+      <c r="C3150">
+        <v>1</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3151">
+        <v>3150</v>
+      </c>
+      <c r="B3151">
+        <v>1575</v>
+      </c>
+      <c r="C3151">
+        <v>2</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3152">
+        <v>3151</v>
+      </c>
+      <c r="B3152">
+        <v>1576</v>
+      </c>
+      <c r="C3152">
+        <v>1</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3153">
+        <v>3152</v>
+      </c>
+      <c r="B3153">
+        <v>1576</v>
+      </c>
+      <c r="C3153">
+        <v>2</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3154">
+        <v>3153</v>
+      </c>
+      <c r="B3154">
+        <v>1577</v>
+      </c>
+      <c r="C3154">
+        <v>1</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3155">
+        <v>3154</v>
+      </c>
+      <c r="B3155">
+        <v>1577</v>
+      </c>
+      <c r="C3155">
+        <v>2</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3156">
+        <v>3155</v>
+      </c>
+      <c r="B3156">
+        <v>1578</v>
+      </c>
+      <c r="C3156">
+        <v>1</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3157">
+        <v>3156</v>
+      </c>
+      <c r="B3157">
+        <v>1578</v>
+      </c>
+      <c r="C3157">
+        <v>2</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3158">
+        <v>3157</v>
+      </c>
+      <c r="B3158">
+        <v>1579</v>
+      </c>
+      <c r="C3158">
+        <v>1</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3159">
+        <v>3158</v>
+      </c>
+      <c r="B3159">
+        <v>1579</v>
+      </c>
+      <c r="C3159">
+        <v>2</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3160">
+        <v>3159</v>
+      </c>
+      <c r="B3160">
+        <v>1580</v>
+      </c>
+      <c r="C3160">
+        <v>1</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3161">
+        <v>3160</v>
+      </c>
+      <c r="B3161">
+        <v>1580</v>
+      </c>
+      <c r="C3161">
+        <v>2</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3162">
+        <v>3161</v>
+      </c>
+      <c r="B3162">
+        <v>1581</v>
+      </c>
+      <c r="C3162">
+        <v>1</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3163">
+        <v>3162</v>
+      </c>
+      <c r="B3163">
+        <v>1581</v>
+      </c>
+      <c r="C3163">
+        <v>2</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3164">
+        <v>3163</v>
+      </c>
+      <c r="B3164">
+        <v>1582</v>
+      </c>
+      <c r="C3164">
+        <v>1</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3165">
+        <v>3164</v>
+      </c>
+      <c r="B3165">
+        <v>1582</v>
+      </c>
+      <c r="C3165">
+        <v>2</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3166">
+        <v>3165</v>
+      </c>
+      <c r="B3166">
+        <v>1583</v>
+      </c>
+      <c r="C3166">
+        <v>1</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3167">
+        <v>3166</v>
+      </c>
+      <c r="B3167">
+        <v>1583</v>
+      </c>
+      <c r="C3167">
+        <v>2</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3168">
+        <v>3167</v>
+      </c>
+      <c r="B3168">
+        <v>1584</v>
+      </c>
+      <c r="C3168">
+        <v>1</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3169">
+        <v>3168</v>
+      </c>
+      <c r="B3169">
+        <v>1584</v>
+      </c>
+      <c r="C3169">
+        <v>2</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3170">
+        <v>3169</v>
+      </c>
+      <c r="B3170">
+        <v>1585</v>
+      </c>
+      <c r="C3170">
+        <v>1</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3171">
+        <v>3170</v>
+      </c>
+      <c r="B3171">
+        <v>1585</v>
+      </c>
+      <c r="C3171">
+        <v>2</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3172">
+        <v>3171</v>
+      </c>
+      <c r="B3172">
+        <v>1586</v>
+      </c>
+      <c r="C3172">
+        <v>1</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3173">
+        <v>3172</v>
+      </c>
+      <c r="B3173">
+        <v>1586</v>
+      </c>
+      <c r="C3173">
+        <v>2</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3174">
+        <v>3173</v>
+      </c>
+      <c r="B3174">
+        <v>1587</v>
+      </c>
+      <c r="C3174">
+        <v>1</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3175">
+        <v>3174</v>
+      </c>
+      <c r="B3175">
+        <v>1587</v>
+      </c>
+      <c r="C3175">
+        <v>2</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3176">
+        <v>3175</v>
+      </c>
+      <c r="B3176">
+        <v>1588</v>
+      </c>
+      <c r="C3176">
+        <v>1</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3177">
+        <v>3176</v>
+      </c>
+      <c r="B3177">
+        <v>1588</v>
+      </c>
+      <c r="C3177">
+        <v>2</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3178">
+        <v>3177</v>
+      </c>
+      <c r="B3178">
+        <v>1589</v>
+      </c>
+      <c r="C3178">
+        <v>1</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3179">
+        <v>3178</v>
+      </c>
+      <c r="B3179">
+        <v>1589</v>
+      </c>
+      <c r="C3179">
+        <v>2</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3180">
+        <v>3179</v>
+      </c>
+      <c r="B3180">
+        <v>1590</v>
+      </c>
+      <c r="C3180">
+        <v>1</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3181">
+        <v>3180</v>
+      </c>
+      <c r="B3181">
+        <v>1590</v>
+      </c>
+      <c r="C3181">
+        <v>2</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3182">
+        <v>3181</v>
+      </c>
+      <c r="B3182">
+        <v>1591</v>
+      </c>
+      <c r="C3182">
+        <v>1</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3183">
+        <v>3182</v>
+      </c>
+      <c r="B3183">
+        <v>1591</v>
+      </c>
+      <c r="C3183">
+        <v>2</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3184">
+        <v>3183</v>
+      </c>
+      <c r="B3184">
+        <v>1592</v>
+      </c>
+      <c r="C3184">
+        <v>1</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3185">
+        <v>3184</v>
+      </c>
+      <c r="B3185">
+        <v>1592</v>
+      </c>
+      <c r="C3185">
+        <v>2</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3186">
+        <v>3185</v>
+      </c>
+      <c r="B3186">
+        <v>1593</v>
+      </c>
+      <c r="C3186">
+        <v>1</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3187">
+        <v>3186</v>
+      </c>
+      <c r="B3187">
+        <v>1593</v>
+      </c>
+      <c r="C3187">
+        <v>2</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3188">
+        <v>3187</v>
+      </c>
+      <c r="B3188">
+        <v>1594</v>
+      </c>
+      <c r="C3188">
+        <v>1</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3189">
+        <v>3188</v>
+      </c>
+      <c r="B3189">
+        <v>1594</v>
+      </c>
+      <c r="C3189">
+        <v>2</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3190">
+        <v>3189</v>
+      </c>
+      <c r="B3190">
+        <v>1595</v>
+      </c>
+      <c r="C3190">
+        <v>1</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3191">
+        <v>3190</v>
+      </c>
+      <c r="B3191">
+        <v>1595</v>
+      </c>
+      <c r="C3191">
+        <v>2</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3192">
+        <v>3191</v>
+      </c>
+      <c r="B3192">
+        <v>1596</v>
+      </c>
+      <c r="C3192">
+        <v>1</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3193">
+        <v>3192</v>
+      </c>
+      <c r="B3193">
+        <v>1596</v>
+      </c>
+      <c r="C3193">
+        <v>2</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3194">
+        <v>3193</v>
+      </c>
+      <c r="B3194">
+        <v>1597</v>
+      </c>
+      <c r="C3194">
+        <v>1</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3195">
+        <v>3194</v>
+      </c>
+      <c r="B3195">
+        <v>1597</v>
+      </c>
+      <c r="C3195">
+        <v>2</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3196">
+        <v>3195</v>
+      </c>
+      <c r="B3196">
+        <v>1598</v>
+      </c>
+      <c r="C3196">
+        <v>1</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3197">
+        <v>3196</v>
+      </c>
+      <c r="B3197">
+        <v>1598</v>
+      </c>
+      <c r="C3197">
+        <v>2</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3198">
+        <v>3197</v>
+      </c>
+      <c r="B3198">
+        <v>1599</v>
+      </c>
+      <c r="C3198">
+        <v>1</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3199">
+        <v>3198</v>
+      </c>
+      <c r="B3199">
+        <v>1599</v>
+      </c>
+      <c r="C3199">
+        <v>2</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3200">
+        <v>3199</v>
+      </c>
+      <c r="B3200">
+        <v>1600</v>
+      </c>
+      <c r="C3200">
+        <v>1</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3201">
+        <v>3200</v>
+      </c>
+      <c r="B3201">
+        <v>1600</v>
+      </c>
+      <c r="C3201">
+        <v>2</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3202">
+        <v>3201</v>
+      </c>
+      <c r="B3202">
+        <v>1601</v>
+      </c>
+      <c r="C3202">
+        <v>1</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3203">
+        <v>3202</v>
+      </c>
+      <c r="B3203">
+        <v>1601</v>
+      </c>
+      <c r="C3203">
+        <v>2</v>
+      </c>
+      <c r="D3203" s="3" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3204">
+        <v>3203</v>
+      </c>
+      <c r="B3204">
+        <v>1602</v>
+      </c>
+      <c r="C3204">
+        <v>1</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3205">
+        <v>3204</v>
+      </c>
+      <c r="B3205">
+        <v>1602</v>
+      </c>
+      <c r="C3205">
+        <v>2</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3206">
+        <v>3205</v>
+      </c>
+      <c r="B3206">
+        <v>1603</v>
+      </c>
+      <c r="C3206">
+        <v>1</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3207">
+        <v>3206</v>
+      </c>
+      <c r="B3207">
+        <v>1603</v>
+      </c>
+      <c r="C3207">
+        <v>2</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3208">
+        <v>3207</v>
+      </c>
+      <c r="B3208">
+        <v>1604</v>
+      </c>
+      <c r="C3208">
+        <v>1</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3209">
+        <v>3208</v>
+      </c>
+      <c r="B3209">
+        <v>1604</v>
+      </c>
+      <c r="C3209">
+        <v>2</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3210">
+        <v>3209</v>
+      </c>
+      <c r="B3210">
+        <v>1605</v>
+      </c>
+      <c r="C3210">
+        <v>1</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3211">
+        <v>3210</v>
+      </c>
+      <c r="B3211">
+        <v>1605</v>
+      </c>
+      <c r="C3211">
+        <v>2</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3212">
+        <v>3211</v>
+      </c>
+      <c r="B3212">
+        <v>1606</v>
+      </c>
+      <c r="C3212">
+        <v>1</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3213">
+        <v>3212</v>
+      </c>
+      <c r="B3213">
+        <v>1606</v>
+      </c>
+      <c r="C3213">
+        <v>2</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3214">
+        <v>3213</v>
+      </c>
+      <c r="B3214">
+        <v>1607</v>
+      </c>
+      <c r="C3214">
+        <v>1</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3215">
+        <v>3214</v>
+      </c>
+      <c r="B3215">
+        <v>1607</v>
+      </c>
+      <c r="C3215">
+        <v>2</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3216">
+        <v>3215</v>
+      </c>
+      <c r="B3216">
+        <v>1608</v>
+      </c>
+      <c r="C3216">
+        <v>1</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3217">
+        <v>3216</v>
+      </c>
+      <c r="B3217">
+        <v>1608</v>
+      </c>
+      <c r="C3217">
+        <v>2</v>
+      </c>
+      <c r="D3217" s="3" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3218">
+        <v>3217</v>
+      </c>
+      <c r="B3218">
+        <v>1609</v>
+      </c>
+      <c r="C3218">
+        <v>1</v>
+      </c>
+      <c r="D3218" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3219">
+        <v>3218</v>
+      </c>
+      <c r="B3219">
+        <v>1609</v>
+      </c>
+      <c r="C3219">
+        <v>2</v>
+      </c>
+      <c r="D3219" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3220">
+        <v>3219</v>
+      </c>
+      <c r="B3220">
+        <v>1610</v>
+      </c>
+      <c r="C3220">
+        <v>1</v>
+      </c>
+      <c r="D3220" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3221">
+        <v>3220</v>
+      </c>
+      <c r="B3221">
+        <v>1610</v>
+      </c>
+      <c r="C3221">
+        <v>2</v>
+      </c>
+      <c r="D3221" s="2" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3222">
+        <v>3221</v>
+      </c>
+      <c r="B3222">
+        <v>1611</v>
+      </c>
+      <c r="C3222">
+        <v>1</v>
+      </c>
+      <c r="D3222" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3223">
+        <v>3222</v>
+      </c>
+      <c r="B3223">
+        <v>1611</v>
+      </c>
+      <c r="C3223">
+        <v>2</v>
+      </c>
+      <c r="D3223" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3224">
+        <v>3223</v>
+      </c>
+      <c r="B3224">
+        <v>1612</v>
+      </c>
+      <c r="C3224">
+        <v>1</v>
+      </c>
+      <c r="D3224" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3225">
+        <v>3224</v>
+      </c>
+      <c r="B3225">
+        <v>1612</v>
+      </c>
+      <c r="C3225">
+        <v>2</v>
+      </c>
+      <c r="D3225" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3226">
+        <v>3225</v>
+      </c>
+      <c r="B3226">
+        <v>1613</v>
+      </c>
+      <c r="C3226">
+        <v>1</v>
+      </c>
+      <c r="D3226" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3227">
+        <v>3226</v>
+      </c>
+      <c r="B3227">
+        <v>1613</v>
+      </c>
+      <c r="C3227">
+        <v>2</v>
+      </c>
+      <c r="D3227" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3228">
+        <v>3227</v>
+      </c>
+      <c r="B3228">
+        <v>1614</v>
+      </c>
+      <c r="C3228">
+        <v>1</v>
+      </c>
+      <c r="D3228" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3229">
+        <v>3228</v>
+      </c>
+      <c r="B3229">
+        <v>1614</v>
+      </c>
+      <c r="C3229">
+        <v>2</v>
+      </c>
+      <c r="D3229" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3230">
+        <v>3229</v>
+      </c>
+      <c r="B3230">
+        <v>1615</v>
+      </c>
+      <c r="C3230">
+        <v>1</v>
+      </c>
+      <c r="D3230" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3231">
+        <v>3230</v>
+      </c>
+      <c r="B3231">
+        <v>1615</v>
+      </c>
+      <c r="C3231">
+        <v>2</v>
+      </c>
+      <c r="D3231" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3232">
+        <v>3231</v>
+      </c>
+      <c r="B3232">
+        <v>1616</v>
+      </c>
+      <c r="C3232">
+        <v>1</v>
+      </c>
+      <c r="D3232" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3233">
+        <v>3232</v>
+      </c>
+      <c r="B3233">
+        <v>1616</v>
+      </c>
+      <c r="C3233">
+        <v>2</v>
+      </c>
+      <c r="D3233" s="2" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3234">
+        <v>3233</v>
+      </c>
+      <c r="B3234">
+        <v>1617</v>
+      </c>
+      <c r="C3234">
+        <v>1</v>
+      </c>
+      <c r="D3234" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3235">
+        <v>3234</v>
+      </c>
+      <c r="B3235">
+        <v>1617</v>
+      </c>
+      <c r="C3235">
+        <v>2</v>
+      </c>
+      <c r="D3235" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3236">
+        <v>3235</v>
+      </c>
+      <c r="B3236">
+        <v>1618</v>
+      </c>
+      <c r="C3236">
+        <v>1</v>
+      </c>
+      <c r="D3236" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3237">
+        <v>3236</v>
+      </c>
+      <c r="B3237">
+        <v>1618</v>
+      </c>
+      <c r="C3237">
+        <v>2</v>
+      </c>
+      <c r="D3237" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3238">
+        <v>3237</v>
+      </c>
+      <c r="B3238">
+        <v>1619</v>
+      </c>
+      <c r="C3238">
+        <v>1</v>
+      </c>
+      <c r="D3238" s="2" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3239">
+        <v>3238</v>
+      </c>
+      <c r="B3239">
+        <v>1619</v>
+      </c>
+      <c r="C3239">
+        <v>2</v>
+      </c>
+      <c r="D3239" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3240">
+        <v>3239</v>
+      </c>
+      <c r="B3240">
+        <v>1620</v>
+      </c>
+      <c r="C3240">
+        <v>1</v>
+      </c>
+      <c r="D3240" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3241">
+        <v>3240</v>
+      </c>
+      <c r="B3241">
+        <v>1620</v>
+      </c>
+      <c r="C3241">
+        <v>2</v>
+      </c>
+      <c r="D3241" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3242">
+        <v>3241</v>
+      </c>
+      <c r="B3242">
+        <v>1621</v>
+      </c>
+      <c r="C3242">
+        <v>1</v>
+      </c>
+      <c r="D3242" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3243">
+        <v>3242</v>
+      </c>
+      <c r="B3243">
+        <v>1621</v>
+      </c>
+      <c r="C3243">
+        <v>2</v>
+      </c>
+      <c r="D3243" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3244">
+        <v>3243</v>
+      </c>
+      <c r="B3244">
+        <v>1622</v>
+      </c>
+      <c r="C3244">
+        <v>1</v>
+      </c>
+      <c r="D3244" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3245">
+        <v>3244</v>
+      </c>
+      <c r="B3245">
+        <v>1622</v>
+      </c>
+      <c r="C3245">
+        <v>2</v>
+      </c>
+      <c r="D3245" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3246">
+        <v>3245</v>
+      </c>
+      <c r="B3246">
+        <v>1623</v>
+      </c>
+      <c r="C3246">
+        <v>1</v>
+      </c>
+      <c r="D3246" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3247">
+        <v>3246</v>
+      </c>
+      <c r="B3247">
+        <v>1623</v>
+      </c>
+      <c r="C3247">
+        <v>2</v>
+      </c>
+      <c r="D3247" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3248">
+        <v>3247</v>
+      </c>
+      <c r="B3248">
+        <v>1624</v>
+      </c>
+      <c r="C3248">
+        <v>1</v>
+      </c>
+      <c r="D3248" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3249">
+        <v>3248</v>
+      </c>
+      <c r="B3249">
+        <v>1624</v>
+      </c>
+      <c r="C3249">
+        <v>2</v>
+      </c>
+      <c r="D3249" s="3" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3250">
+        <v>3249</v>
+      </c>
+      <c r="B3250">
+        <v>1626</v>
+      </c>
+      <c r="C3250">
+        <v>1</v>
+      </c>
+      <c r="D3250" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3251">
+        <v>3250</v>
+      </c>
+      <c r="B3251">
+        <v>1625</v>
+      </c>
+      <c r="C3251">
+        <v>2</v>
+      </c>
+      <c r="D3251" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3252">
+        <v>3251</v>
+      </c>
+      <c r="B3252">
+        <v>1626</v>
+      </c>
+      <c r="C3252">
+        <v>1</v>
+      </c>
+      <c r="D3252" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3253">
+        <v>3252</v>
+      </c>
+      <c r="B3253">
+        <v>1626</v>
+      </c>
+      <c r="C3253">
+        <v>2</v>
+      </c>
+      <c r="D3253" t="s">
+        <v>2693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AAA32-6617-4599-AFE4-95F145FDE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180235FC-EB9A-4C50-B707-877C87C79E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="2720">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8150,6 +8150,36 @@
   </si>
   <si>
     <t>Bu kullanım şartları ve koşulları, Mentoryum web sitesinin kullanımına ilişkin kuralları ve düzenlemeleri belirtir.</t>
+  </si>
+  <si>
+    <t>Edit Your Profile</t>
+  </si>
+  <si>
+    <t>Profilini Düzenle</t>
+  </si>
+  <si>
+    <t>Complete your profile to unlock all features</t>
+  </si>
+  <si>
+    <t>Tüm özelliklerin kilidini açmak için profilinizi tamamlayın</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Kişisel Bilgiler</t>
+  </si>
+  <si>
+    <t>Şifre Değiştir</t>
+  </si>
+  <si>
+    <t>Ayarlar</t>
   </si>
 </sst>
 </file>
@@ -8490,10 +8520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3253"/>
+  <dimension ref="A1:E3263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3095" workbookViewId="0">
-      <selection activeCell="D3115" sqref="D3115"/>
+    <sheetView tabSelected="1" topLeftCell="A3233" workbookViewId="0">
+      <selection activeCell="D3267" sqref="D3267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54049,6 +54079,146 @@
         <v>2693</v>
       </c>
     </row>
+    <row r="3254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3254">
+        <v>3253</v>
+      </c>
+      <c r="B3254">
+        <v>1627</v>
+      </c>
+      <c r="C3254">
+        <v>1</v>
+      </c>
+      <c r="D3254" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3255">
+        <v>3254</v>
+      </c>
+      <c r="B3255">
+        <v>1627</v>
+      </c>
+      <c r="C3255">
+        <v>2</v>
+      </c>
+      <c r="D3255" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3256">
+        <v>3255</v>
+      </c>
+      <c r="B3256">
+        <v>1628</v>
+      </c>
+      <c r="C3256">
+        <v>1</v>
+      </c>
+      <c r="D3256" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3257">
+        <v>3256</v>
+      </c>
+      <c r="B3257">
+        <v>1628</v>
+      </c>
+      <c r="C3257">
+        <v>2</v>
+      </c>
+      <c r="D3257" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3258">
+        <v>3257</v>
+      </c>
+      <c r="B3258">
+        <v>1629</v>
+      </c>
+      <c r="C3258">
+        <v>1</v>
+      </c>
+      <c r="D3258" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3259">
+        <v>3258</v>
+      </c>
+      <c r="B3259">
+        <v>1629</v>
+      </c>
+      <c r="C3259">
+        <v>2</v>
+      </c>
+      <c r="D3259" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3260">
+        <v>3259</v>
+      </c>
+      <c r="B3260">
+        <v>1630</v>
+      </c>
+      <c r="C3260">
+        <v>1</v>
+      </c>
+      <c r="D3260" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3261">
+        <v>3260</v>
+      </c>
+      <c r="B3261">
+        <v>1630</v>
+      </c>
+      <c r="C3261">
+        <v>2</v>
+      </c>
+      <c r="D3261" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3262">
+        <v>3261</v>
+      </c>
+      <c r="B3262">
+        <v>1631</v>
+      </c>
+      <c r="C3262">
+        <v>1</v>
+      </c>
+      <c r="D3262" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3263">
+        <v>3262</v>
+      </c>
+      <c r="B3263">
+        <v>1631</v>
+      </c>
+      <c r="C3263">
+        <v>2</v>
+      </c>
+      <c r="D3263" t="s">
+        <v>2719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180235FC-EB9A-4C50-B707-877C87C79E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526C938-4E20-4215-A059-0F23D1C8965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="2720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="2738">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8180,6 +8180,60 @@
   </si>
   <si>
     <t>Ayarlar</t>
+  </si>
+  <si>
+    <t>Theme Mode</t>
+  </si>
+  <si>
+    <t>Choose light or dark mode</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Choose language</t>
+  </si>
+  <si>
+    <t>Danger Zone</t>
+  </si>
+  <si>
+    <t>Delete Account</t>
+  </si>
+  <si>
+    <t>Close your account permanently</t>
+  </si>
+  <si>
+    <t>Tema Modu</t>
+  </si>
+  <si>
+    <t>Açık veya koyu modu seçin</t>
+  </si>
+  <si>
+    <t>Dil</t>
+  </si>
+  <si>
+    <t>Dil seçin</t>
+  </si>
+  <si>
+    <t>Tehlikeli Bölge</t>
+  </si>
+  <si>
+    <t>Hesabı kalıcı olarak kapatın</t>
+  </si>
+  <si>
+    <t>Hesabı Sil</t>
+  </si>
+  <si>
+    <t>Hesabınız kalıcı olarak kapatıldı</t>
+  </si>
+  <si>
+    <t>Your account has been permanently closed</t>
+  </si>
+  <si>
+    <t>Something went wrong, try again later.</t>
+  </si>
+  <si>
+    <t>Bir şeyler  ters gitti, daha sonra tekrar deneyin.</t>
   </si>
 </sst>
 </file>
@@ -8520,10 +8574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3263"/>
+  <dimension ref="A1:E3281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3233" workbookViewId="0">
-      <selection activeCell="D3267" sqref="D3267"/>
+    <sheetView tabSelected="1" topLeftCell="A3253" workbookViewId="0">
+      <selection activeCell="D3281" sqref="D3281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54219,6 +54273,258 @@
         <v>2719</v>
       </c>
     </row>
+    <row r="3264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3264">
+        <v>3263</v>
+      </c>
+      <c r="B3264">
+        <v>1632</v>
+      </c>
+      <c r="C3264">
+        <v>1</v>
+      </c>
+      <c r="D3264" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3265">
+        <v>3264</v>
+      </c>
+      <c r="B3265">
+        <v>1632</v>
+      </c>
+      <c r="C3265">
+        <v>2</v>
+      </c>
+      <c r="D3265" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3266">
+        <v>3265</v>
+      </c>
+      <c r="B3266">
+        <v>1633</v>
+      </c>
+      <c r="C3266">
+        <v>1</v>
+      </c>
+      <c r="D3266" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3267">
+        <v>3266</v>
+      </c>
+      <c r="B3267">
+        <v>1633</v>
+      </c>
+      <c r="C3267">
+        <v>2</v>
+      </c>
+      <c r="D3267" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3268">
+        <v>3267</v>
+      </c>
+      <c r="B3268">
+        <v>1634</v>
+      </c>
+      <c r="C3268">
+        <v>1</v>
+      </c>
+      <c r="D3268" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3269">
+        <v>3268</v>
+      </c>
+      <c r="B3269">
+        <v>1634</v>
+      </c>
+      <c r="C3269">
+        <v>2</v>
+      </c>
+      <c r="D3269" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3270">
+        <v>3269</v>
+      </c>
+      <c r="B3270">
+        <v>1635</v>
+      </c>
+      <c r="C3270">
+        <v>1</v>
+      </c>
+      <c r="D3270" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3271">
+        <v>3270</v>
+      </c>
+      <c r="B3271">
+        <v>1635</v>
+      </c>
+      <c r="C3271">
+        <v>2</v>
+      </c>
+      <c r="D3271" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3272">
+        <v>3271</v>
+      </c>
+      <c r="B3272">
+        <v>1636</v>
+      </c>
+      <c r="C3272">
+        <v>1</v>
+      </c>
+      <c r="D3272" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3273">
+        <v>3272</v>
+      </c>
+      <c r="B3273">
+        <v>1636</v>
+      </c>
+      <c r="C3273">
+        <v>2</v>
+      </c>
+      <c r="D3273" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3274">
+        <v>3273</v>
+      </c>
+      <c r="B3274">
+        <v>1637</v>
+      </c>
+      <c r="C3274">
+        <v>1</v>
+      </c>
+      <c r="D3274" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3275">
+        <v>3274</v>
+      </c>
+      <c r="B3275">
+        <v>1637</v>
+      </c>
+      <c r="C3275">
+        <v>2</v>
+      </c>
+      <c r="D3275" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3276">
+        <v>3275</v>
+      </c>
+      <c r="B3276">
+        <v>1638</v>
+      </c>
+      <c r="C3276">
+        <v>1</v>
+      </c>
+      <c r="D3276" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3277">
+        <v>3276</v>
+      </c>
+      <c r="B3277">
+        <v>1638</v>
+      </c>
+      <c r="C3277">
+        <v>2</v>
+      </c>
+      <c r="D3277" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3278">
+        <v>3277</v>
+      </c>
+      <c r="B3278">
+        <v>1639</v>
+      </c>
+      <c r="C3278">
+        <v>1</v>
+      </c>
+      <c r="D3278" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3279">
+        <v>3278</v>
+      </c>
+      <c r="B3279">
+        <v>1639</v>
+      </c>
+      <c r="C3279">
+        <v>2</v>
+      </c>
+      <c r="D3279" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3280">
+        <v>3279</v>
+      </c>
+      <c r="B3280">
+        <v>1640</v>
+      </c>
+      <c r="C3280">
+        <v>1</v>
+      </c>
+      <c r="D3280" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3281">
+        <v>3280</v>
+      </c>
+      <c r="B3281">
+        <v>1640</v>
+      </c>
+      <c r="C3281">
+        <v>2</v>
+      </c>
+      <c r="D3281" t="s">
+        <v>2737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526C938-4E20-4215-A059-0F23D1C8965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723FA70-8BF7-48D8-B473-FFA3BF60FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="2764">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8234,6 +8234,84 @@
   </si>
   <si>
     <t>Bir şeyler  ters gitti, daha sonra tekrar deneyin.</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>New Password Must Contain:</t>
+  </si>
+  <si>
+    <t>At least 8 characters</t>
+  </si>
+  <si>
+    <t>At least 1 uppercase letter (A-Z)</t>
+  </si>
+  <si>
+    <t>At least 1 number (1-9)</t>
+  </si>
+  <si>
+    <t>At least 1 special characters</t>
+  </si>
+  <si>
+    <t>Eski Şifre</t>
+  </si>
+  <si>
+    <t>Yeni Şifre</t>
+  </si>
+  <si>
+    <t>Şifreyi Onayla</t>
+  </si>
+  <si>
+    <t>Yeni şifre İçermeli:</t>
+  </si>
+  <si>
+    <t>En az 8 karakter</t>
+  </si>
+  <si>
+    <t>At least 1 lower letter (a-z)</t>
+  </si>
+  <si>
+    <t>En az 1 küçük harf (a-z)</t>
+  </si>
+  <si>
+    <t>En az 1 büyük harf (A-Z)</t>
+  </si>
+  <si>
+    <t>En az 1 sayı (1-9)</t>
+  </si>
+  <si>
+    <t>En az 1 özel karakter</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>İptal</t>
+  </si>
+  <si>
+    <t>Passwords must match</t>
+  </si>
+  <si>
+    <t>Şifre Eşleşmeşi</t>
+  </si>
+  <si>
+    <t>Your password has been updated, you are directed to the login page</t>
+  </si>
+  <si>
+    <t>Old password is incorrect</t>
+  </si>
+  <si>
+    <t>Eski şifre hatalı</t>
+  </si>
+  <si>
+    <t>Şifreniz güncellendi, giriş sayfasına yönlendiriliyorsunuz</t>
   </si>
 </sst>
 </file>
@@ -8574,10 +8652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3281"/>
+  <dimension ref="A1:E3307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3253" workbookViewId="0">
-      <selection activeCell="D3281" sqref="D3281"/>
+    <sheetView tabSelected="1" topLeftCell="A3285" workbookViewId="0">
+      <selection activeCell="D3306" sqref="D3306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54525,6 +54603,370 @@
         <v>2737</v>
       </c>
     </row>
+    <row r="3282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3282">
+        <v>3281</v>
+      </c>
+      <c r="B3282">
+        <v>1641</v>
+      </c>
+      <c r="C3282">
+        <v>1</v>
+      </c>
+      <c r="D3282" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3283">
+        <v>3282</v>
+      </c>
+      <c r="B3283">
+        <v>1641</v>
+      </c>
+      <c r="C3283">
+        <v>2</v>
+      </c>
+      <c r="D3283" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3284">
+        <v>3283</v>
+      </c>
+      <c r="B3284">
+        <v>1642</v>
+      </c>
+      <c r="C3284">
+        <v>1</v>
+      </c>
+      <c r="D3284" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3285">
+        <v>3284</v>
+      </c>
+      <c r="B3285">
+        <v>1642</v>
+      </c>
+      <c r="C3285">
+        <v>2</v>
+      </c>
+      <c r="D3285" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3286">
+        <v>3285</v>
+      </c>
+      <c r="B3286">
+        <v>1643</v>
+      </c>
+      <c r="C3286">
+        <v>1</v>
+      </c>
+      <c r="D3286" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3287">
+        <v>3286</v>
+      </c>
+      <c r="B3287">
+        <v>1643</v>
+      </c>
+      <c r="C3287">
+        <v>2</v>
+      </c>
+      <c r="D3287" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3288">
+        <v>3287</v>
+      </c>
+      <c r="B3288">
+        <v>1644</v>
+      </c>
+      <c r="C3288">
+        <v>1</v>
+      </c>
+      <c r="D3288" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3289">
+        <v>3288</v>
+      </c>
+      <c r="B3289">
+        <v>1644</v>
+      </c>
+      <c r="C3289">
+        <v>2</v>
+      </c>
+      <c r="D3289" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3290">
+        <v>3289</v>
+      </c>
+      <c r="B3290">
+        <v>1645</v>
+      </c>
+      <c r="C3290">
+        <v>1</v>
+      </c>
+      <c r="D3290" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3291">
+        <v>3290</v>
+      </c>
+      <c r="B3291">
+        <v>1645</v>
+      </c>
+      <c r="C3291">
+        <v>2</v>
+      </c>
+      <c r="D3291" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3292">
+        <v>3291</v>
+      </c>
+      <c r="B3292">
+        <v>1646</v>
+      </c>
+      <c r="C3292">
+        <v>1</v>
+      </c>
+      <c r="D3292" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3293">
+        <v>3292</v>
+      </c>
+      <c r="B3293">
+        <v>1646</v>
+      </c>
+      <c r="C3293">
+        <v>2</v>
+      </c>
+      <c r="D3293" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3294">
+        <v>3293</v>
+      </c>
+      <c r="B3294">
+        <v>1647</v>
+      </c>
+      <c r="C3294">
+        <v>1</v>
+      </c>
+      <c r="D3294" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3295">
+        <v>3294</v>
+      </c>
+      <c r="B3295">
+        <v>1647</v>
+      </c>
+      <c r="C3295">
+        <v>2</v>
+      </c>
+      <c r="D3295" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3296">
+        <v>3295</v>
+      </c>
+      <c r="B3296">
+        <v>1648</v>
+      </c>
+      <c r="C3296">
+        <v>1</v>
+      </c>
+      <c r="D3296" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3297">
+        <v>3296</v>
+      </c>
+      <c r="B3297">
+        <v>1648</v>
+      </c>
+      <c r="C3297">
+        <v>2</v>
+      </c>
+      <c r="D3297" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3298">
+        <v>3297</v>
+      </c>
+      <c r="B3298">
+        <v>1649</v>
+      </c>
+      <c r="C3298">
+        <v>1</v>
+      </c>
+      <c r="D3298" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3299">
+        <v>3298</v>
+      </c>
+      <c r="B3299">
+        <v>1649</v>
+      </c>
+      <c r="C3299">
+        <v>2</v>
+      </c>
+      <c r="D3299" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3300">
+        <v>3299</v>
+      </c>
+      <c r="B3300">
+        <v>1650</v>
+      </c>
+      <c r="C3300">
+        <v>1</v>
+      </c>
+      <c r="D3300" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3301">
+        <v>3300</v>
+      </c>
+      <c r="B3301">
+        <v>1650</v>
+      </c>
+      <c r="C3301">
+        <v>2</v>
+      </c>
+      <c r="D3301" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3302">
+        <v>3301</v>
+      </c>
+      <c r="B3302">
+        <v>1651</v>
+      </c>
+      <c r="C3302">
+        <v>1</v>
+      </c>
+      <c r="D3302" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3303">
+        <v>3302</v>
+      </c>
+      <c r="B3303">
+        <v>1651</v>
+      </c>
+      <c r="C3303">
+        <v>2</v>
+      </c>
+      <c r="D3303" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3304">
+        <v>3303</v>
+      </c>
+      <c r="B3304">
+        <v>1652</v>
+      </c>
+      <c r="C3304">
+        <v>1</v>
+      </c>
+      <c r="D3304" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3305">
+        <v>3304</v>
+      </c>
+      <c r="B3305">
+        <v>1652</v>
+      </c>
+      <c r="C3305">
+        <v>2</v>
+      </c>
+      <c r="D3305" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3306">
+        <v>3305</v>
+      </c>
+      <c r="B3306">
+        <v>1653</v>
+      </c>
+      <c r="C3306">
+        <v>1</v>
+      </c>
+      <c r="D3306" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3307">
+        <v>3306</v>
+      </c>
+      <c r="B3307">
+        <v>1653</v>
+      </c>
+      <c r="C3307">
+        <v>2</v>
+      </c>
+      <c r="D3307" t="s">
+        <v>2762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723FA70-8BF7-48D8-B473-FFA3BF60FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB317E1-1012-4FFE-9CA4-434214F9144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="2764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="2793">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8312,6 +8312,93 @@
   </si>
   <si>
     <t>Şifreniz güncellendi, giriş sayfasına yönlendiriliyorsunuz</t>
+  </si>
+  <si>
+    <t>About Me</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Social Account</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Skills in Progress</t>
+  </si>
+  <si>
+    <t>Öğrenim Durumu</t>
+  </si>
+  <si>
+    <t>Beceriler</t>
+  </si>
+  <si>
+    <t>İşler</t>
+  </si>
+  <si>
+    <t>Öğrenim</t>
+  </si>
+  <si>
+    <t>Sosyal Medya Hesapları</t>
+  </si>
+  <si>
+    <t>Konum</t>
+  </si>
+  <si>
+    <t>Yaş</t>
+  </si>
+  <si>
+    <t>Meslek</t>
+  </si>
+  <si>
+    <t>Eposta</t>
+  </si>
+  <si>
+    <t>Uyruk</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>Hakkımda</t>
+  </si>
+  <si>
+    <t>This field is required</t>
+  </si>
+  <si>
+    <t>Bu alanın doldurulması zorunludur</t>
+  </si>
+  <si>
+    <t>Updated successfully</t>
+  </si>
+  <si>
+    <t>Başarıyla güncellendi</t>
   </si>
 </sst>
 </file>
@@ -8652,10 +8739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3307"/>
+  <dimension ref="A1:E3337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3285" workbookViewId="0">
-      <selection activeCell="D3306" sqref="D3306"/>
+    <sheetView tabSelected="1" topLeftCell="A3317" workbookViewId="0">
+      <selection activeCell="D3338" sqref="D3338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54967,6 +55054,426 @@
         <v>2762</v>
       </c>
     </row>
+    <row r="3308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3308">
+        <v>3307</v>
+      </c>
+      <c r="B3308">
+        <v>1654</v>
+      </c>
+      <c r="C3308">
+        <v>1</v>
+      </c>
+      <c r="D3308" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3309">
+        <v>3308</v>
+      </c>
+      <c r="B3309">
+        <v>1654</v>
+      </c>
+      <c r="C3309">
+        <v>2</v>
+      </c>
+      <c r="D3309" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3310">
+        <v>3309</v>
+      </c>
+      <c r="B3310">
+        <v>1655</v>
+      </c>
+      <c r="C3310">
+        <v>1</v>
+      </c>
+      <c r="D3310" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3311">
+        <v>3310</v>
+      </c>
+      <c r="B3311">
+        <v>1655</v>
+      </c>
+      <c r="C3311">
+        <v>2</v>
+      </c>
+      <c r="D3311" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3312">
+        <v>3311</v>
+      </c>
+      <c r="B3312">
+        <v>1656</v>
+      </c>
+      <c r="C3312">
+        <v>1</v>
+      </c>
+      <c r="D3312" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3313">
+        <v>3312</v>
+      </c>
+      <c r="B3313">
+        <v>1656</v>
+      </c>
+      <c r="C3313">
+        <v>2</v>
+      </c>
+      <c r="D3313" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3314">
+        <v>3313</v>
+      </c>
+      <c r="B3314">
+        <v>1657</v>
+      </c>
+      <c r="C3314">
+        <v>1</v>
+      </c>
+      <c r="D3314" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3315">
+        <v>3314</v>
+      </c>
+      <c r="B3315">
+        <v>1657</v>
+      </c>
+      <c r="C3315">
+        <v>2</v>
+      </c>
+      <c r="D3315" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3316">
+        <v>3315</v>
+      </c>
+      <c r="B3316">
+        <v>1658</v>
+      </c>
+      <c r="C3316">
+        <v>1</v>
+      </c>
+      <c r="D3316" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3317">
+        <v>3316</v>
+      </c>
+      <c r="B3317">
+        <v>1658</v>
+      </c>
+      <c r="C3317">
+        <v>2</v>
+      </c>
+      <c r="D3317" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3318">
+        <v>3317</v>
+      </c>
+      <c r="B3318">
+        <v>1659</v>
+      </c>
+      <c r="C3318">
+        <v>1</v>
+      </c>
+      <c r="D3318" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3319">
+        <v>3318</v>
+      </c>
+      <c r="B3319">
+        <v>1659</v>
+      </c>
+      <c r="C3319">
+        <v>2</v>
+      </c>
+      <c r="D3319" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3320">
+        <v>3319</v>
+      </c>
+      <c r="B3320">
+        <v>1660</v>
+      </c>
+      <c r="C3320">
+        <v>1</v>
+      </c>
+      <c r="D3320" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3321">
+        <v>3320</v>
+      </c>
+      <c r="B3321">
+        <v>1660</v>
+      </c>
+      <c r="C3321">
+        <v>2</v>
+      </c>
+      <c r="D3321" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3322">
+        <v>3321</v>
+      </c>
+      <c r="B3322">
+        <v>1661</v>
+      </c>
+      <c r="C3322">
+        <v>1</v>
+      </c>
+      <c r="D3322" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3323">
+        <v>3322</v>
+      </c>
+      <c r="B3323">
+        <v>1661</v>
+      </c>
+      <c r="C3323">
+        <v>2</v>
+      </c>
+      <c r="D3323" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3324">
+        <v>3323</v>
+      </c>
+      <c r="B3324">
+        <v>1662</v>
+      </c>
+      <c r="C3324">
+        <v>1</v>
+      </c>
+      <c r="D3324" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3325">
+        <v>3324</v>
+      </c>
+      <c r="B3325">
+        <v>1662</v>
+      </c>
+      <c r="C3325">
+        <v>2</v>
+      </c>
+      <c r="D3325" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3326">
+        <v>3325</v>
+      </c>
+      <c r="B3326">
+        <v>1663</v>
+      </c>
+      <c r="C3326">
+        <v>1</v>
+      </c>
+      <c r="D3326" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3327">
+        <v>3326</v>
+      </c>
+      <c r="B3327">
+        <v>1663</v>
+      </c>
+      <c r="C3327">
+        <v>2</v>
+      </c>
+      <c r="D3327" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3328">
+        <v>3327</v>
+      </c>
+      <c r="B3328">
+        <v>1664</v>
+      </c>
+      <c r="C3328">
+        <v>1</v>
+      </c>
+      <c r="D3328" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3329">
+        <v>3328</v>
+      </c>
+      <c r="B3329">
+        <v>1664</v>
+      </c>
+      <c r="C3329">
+        <v>2</v>
+      </c>
+      <c r="D3329" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3330">
+        <v>3329</v>
+      </c>
+      <c r="B3330">
+        <v>1665</v>
+      </c>
+      <c r="C3330">
+        <v>1</v>
+      </c>
+      <c r="D3330" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3331">
+        <v>3330</v>
+      </c>
+      <c r="B3331">
+        <v>1665</v>
+      </c>
+      <c r="C3331">
+        <v>2</v>
+      </c>
+      <c r="D3331" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3332">
+        <v>3331</v>
+      </c>
+      <c r="B3332">
+        <v>1666</v>
+      </c>
+      <c r="C3332">
+        <v>1</v>
+      </c>
+      <c r="D3332" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3333">
+        <v>3332</v>
+      </c>
+      <c r="B3333">
+        <v>1666</v>
+      </c>
+      <c r="C3333">
+        <v>2</v>
+      </c>
+      <c r="D3333" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3334">
+        <v>3333</v>
+      </c>
+      <c r="B3334">
+        <v>1667</v>
+      </c>
+      <c r="C3334">
+        <v>1</v>
+      </c>
+      <c r="D3334" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3335">
+        <v>3334</v>
+      </c>
+      <c r="B3335">
+        <v>1667</v>
+      </c>
+      <c r="C3335">
+        <v>2</v>
+      </c>
+      <c r="D3335" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3336">
+        <v>3335</v>
+      </c>
+      <c r="B3336">
+        <v>1668</v>
+      </c>
+      <c r="C3336">
+        <v>1</v>
+      </c>
+      <c r="D3336" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3337">
+        <v>3336</v>
+      </c>
+      <c r="B3337">
+        <v>1668</v>
+      </c>
+      <c r="C3337">
+        <v>2</v>
+      </c>
+      <c r="D3337" t="s">
+        <v>2792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB317E1-1012-4FFE-9CA4-434214F9144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E54B97-72F6-424E-B11B-4E5F6236D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="2799">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8399,6 +8399,24 @@
   </si>
   <si>
     <t>Başarıyla güncellendi</t>
+  </si>
+  <si>
+    <t>Profession cannot exceed 100 letters</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>X(Twitter)</t>
+  </si>
+  <si>
+    <t>Doğum Tarihi</t>
+  </si>
+  <si>
+    <t>Profession 100 harfi geçemez</t>
   </si>
 </sst>
 </file>
@@ -8739,10 +8757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3337"/>
+  <dimension ref="A1:E3347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3317" workbookViewId="0">
-      <selection activeCell="D3338" sqref="D3338"/>
+      <selection activeCell="D3340" sqref="D3340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55474,6 +55492,146 @@
         <v>2792</v>
       </c>
     </row>
+    <row r="3338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3338">
+        <v>3337</v>
+      </c>
+      <c r="B3338">
+        <v>1669</v>
+      </c>
+      <c r="C3338">
+        <v>1</v>
+      </c>
+      <c r="D3338" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3339">
+        <v>3338</v>
+      </c>
+      <c r="B3339">
+        <v>1669</v>
+      </c>
+      <c r="C3339">
+        <v>2</v>
+      </c>
+      <c r="D3339" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3340">
+        <v>3339</v>
+      </c>
+      <c r="B3340">
+        <v>1670</v>
+      </c>
+      <c r="C3340">
+        <v>1</v>
+      </c>
+      <c r="D3340" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3341">
+        <v>3340</v>
+      </c>
+      <c r="B3341">
+        <v>1670</v>
+      </c>
+      <c r="C3341">
+        <v>2</v>
+      </c>
+      <c r="D3341" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3342">
+        <v>3341</v>
+      </c>
+      <c r="B3342">
+        <v>1671</v>
+      </c>
+      <c r="C3342">
+        <v>1</v>
+      </c>
+      <c r="D3342" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3343">
+        <v>3342</v>
+      </c>
+      <c r="B3343">
+        <v>1671</v>
+      </c>
+      <c r="C3343">
+        <v>2</v>
+      </c>
+      <c r="D3343" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3344">
+        <v>3343</v>
+      </c>
+      <c r="B3344">
+        <v>1672</v>
+      </c>
+      <c r="C3344">
+        <v>1</v>
+      </c>
+      <c r="D3344" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3345">
+        <v>3344</v>
+      </c>
+      <c r="B3345">
+        <v>1672</v>
+      </c>
+      <c r="C3345">
+        <v>2</v>
+      </c>
+      <c r="D3345" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3346">
+        <v>3345</v>
+      </c>
+      <c r="B3346">
+        <v>1673</v>
+      </c>
+      <c r="C3346">
+        <v>1</v>
+      </c>
+      <c r="D3346" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3347">
+        <v>3346</v>
+      </c>
+      <c r="B3347">
+        <v>1673</v>
+      </c>
+      <c r="C3347">
+        <v>2</v>
+      </c>
+      <c r="D3347" t="s">
+        <v>2796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/commands/management/commands/Translations.xlsx
+++ b/backend/commands/management/commands/Translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E54B97-72F6-424E-B11B-4E5F6236D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0198C65-ACDC-4DB8-8F66-AFB272A1BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="2799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="2803">
   <si>
     <t>TranslationsId</t>
   </si>
@@ -8417,6 +8417,18 @@
   </si>
   <si>
     <t>Profession 100 harfi geçemez</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Mesajlar</t>
+  </si>
+  <si>
+    <t>Send Message…</t>
+  </si>
+  <si>
+    <t>Mesaj Gönder…</t>
   </si>
 </sst>
 </file>
@@ -8757,10 +8769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3347"/>
+  <dimension ref="A1:E3351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3317" workbookViewId="0">
-      <selection activeCell="D3340" sqref="D3340"/>
+    <sheetView tabSelected="1" topLeftCell="A3337" workbookViewId="0">
+      <selection activeCell="C3355" sqref="C3355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55632,6 +55644,62 @@
         <v>2796</v>
       </c>
     </row>
+    <row r="3348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3348">
+        <v>3347</v>
+      </c>
+      <c r="B3348">
+        <v>1674</v>
+      </c>
+      <c r="C3348">
+        <v>1</v>
+      </c>
+      <c r="D3348" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3349">
+        <v>3348</v>
+      </c>
+      <c r="B3349">
+        <v>1674</v>
+      </c>
+      <c r="C3349">
+        <v>2</v>
+      </c>
+      <c r="D3349" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3350">
+        <v>3349</v>
+      </c>
+      <c r="B3350">
+        <v>1675</v>
+      </c>
+      <c r="C3350">
+        <v>1</v>
+      </c>
+      <c r="D3350" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3351">
+        <v>3350</v>
+      </c>
+      <c r="B3351">
+        <v>1675</v>
+      </c>
+      <c r="C3351">
+        <v>2</v>
+      </c>
+      <c r="D3351" t="s">
+        <v>2802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
